--- a/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006577991118815</v>
+        <v>1.023146881010899</v>
       </c>
       <c r="D2">
-        <v>1.024987221346438</v>
+        <v>1.040362872526489</v>
       </c>
       <c r="E2">
-        <v>1.012080698964005</v>
+        <v>1.035962706005953</v>
       </c>
       <c r="F2">
-        <v>1.023037177507157</v>
+        <v>1.046566358201836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049531016662773</v>
+        <v>1.05249831232628</v>
       </c>
       <c r="J2">
-        <v>1.028563720028425</v>
+        <v>1.044656646486391</v>
       </c>
       <c r="K2">
-        <v>1.036109083396389</v>
+        <v>1.051287132451004</v>
       </c>
       <c r="L2">
-        <v>1.023374257479632</v>
+        <v>1.046942766740752</v>
       </c>
       <c r="M2">
-        <v>1.034184632791481</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.057412941537269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015196749542958</v>
+        <v>1.029657434171538</v>
       </c>
       <c r="D3">
-        <v>1.031830289911654</v>
+        <v>1.045379701451479</v>
       </c>
       <c r="E3">
-        <v>1.019610300309773</v>
+        <v>1.04140582209422</v>
       </c>
       <c r="F3">
-        <v>1.030990302581784</v>
+        <v>1.052089283375549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05297105079211</v>
+        <v>1.054312800009921</v>
       </c>
       <c r="J3">
-        <v>1.035281537670924</v>
+        <v>1.049371009459944</v>
       </c>
       <c r="K3">
-        <v>1.04207147215523</v>
+        <v>1.055463087393623</v>
       </c>
       <c r="L3">
-        <v>1.029998264729163</v>
+        <v>1.051534961972553</v>
       </c>
       <c r="M3">
-        <v>1.04124143644512</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.062096384156616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020577786071313</v>
+        <v>1.033763267884386</v>
       </c>
       <c r="D4">
-        <v>1.036105269789695</v>
+        <v>1.048545661010943</v>
       </c>
       <c r="E4">
-        <v>1.024312052843241</v>
+        <v>1.044844042940537</v>
       </c>
       <c r="F4">
-        <v>1.035962889079038</v>
+        <v>1.055577326456339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05510414715983</v>
+        <v>1.05544571939528</v>
       </c>
       <c r="J4">
-        <v>1.039469365603839</v>
+        <v>1.052341036139732</v>
       </c>
       <c r="K4">
-        <v>1.045786622193593</v>
+        <v>1.058091467059726</v>
       </c>
       <c r="L4">
-        <v>1.034125647213841</v>
+        <v>1.054429766828872</v>
       </c>
       <c r="M4">
-        <v>1.045645815975768</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.065048247107669</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022796133512585</v>
+        <v>1.035464992532263</v>
       </c>
       <c r="D5">
-        <v>1.03786813567727</v>
+        <v>1.049858264116661</v>
       </c>
       <c r="E5">
-        <v>1.026250447861485</v>
+        <v>1.046270323988052</v>
       </c>
       <c r="F5">
-        <v>1.038014455311699</v>
+        <v>1.057024126639823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055979939911868</v>
+        <v>1.055912491233332</v>
       </c>
       <c r="J5">
-        <v>1.041194213254018</v>
+        <v>1.053571219671961</v>
       </c>
       <c r="K5">
-        <v>1.047316341201108</v>
+        <v>1.059179531355029</v>
       </c>
       <c r="L5">
-        <v>1.035825124398993</v>
+        <v>1.055629203405361</v>
       </c>
       <c r="M5">
-        <v>1.047461090111599</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.066271206596644</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023166116061602</v>
+        <v>1.035749324866538</v>
       </c>
       <c r="D6">
-        <v>1.038162177244986</v>
+        <v>1.0500776025776</v>
       </c>
       <c r="E6">
-        <v>1.026573741653027</v>
+        <v>1.046508705784519</v>
       </c>
       <c r="F6">
-        <v>1.03835671297912</v>
+        <v>1.057265928967279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056125794630049</v>
+        <v>1.055990316490091</v>
       </c>
       <c r="J6">
-        <v>1.041481792704463</v>
+        <v>1.053776716684535</v>
       </c>
       <c r="K6">
-        <v>1.04757136037774</v>
+        <v>1.059361251527733</v>
       </c>
       <c r="L6">
-        <v>1.036108445882378</v>
+        <v>1.055829588138729</v>
       </c>
       <c r="M6">
-        <v>1.047763818268204</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.066475514009344</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020607596193699</v>
+        <v>1.033786100595532</v>
       </c>
       <c r="D7">
-        <v>1.036128957360079</v>
+        <v>1.048563271163208</v>
       </c>
       <c r="E7">
-        <v>1.024338100745938</v>
+        <v>1.044863175035167</v>
       </c>
       <c r="F7">
-        <v>1.03599045177941</v>
+        <v>1.055596734390848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055115930329754</v>
+        <v>1.05545199333542</v>
       </c>
       <c r="J7">
-        <v>1.039492550492011</v>
+        <v>1.052357545189105</v>
       </c>
       <c r="K7">
-        <v>1.045807186022114</v>
+        <v>1.058106071307177</v>
       </c>
       <c r="L7">
-        <v>1.034148492965409</v>
+        <v>1.054445861643768</v>
       </c>
       <c r="M7">
-        <v>1.045670211478827</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.065064658047241</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009533238125279</v>
+        <v>1.025370062507771</v>
       </c>
       <c r="D8">
-        <v>1.027332983129907</v>
+        <v>1.042075482379521</v>
       </c>
       <c r="E8">
-        <v>1.014662279678985</v>
+        <v>1.037820168768504</v>
       </c>
       <c r="F8">
-        <v>1.025762607643901</v>
+        <v>1.048451175444491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050713617220926</v>
+        <v>1.053120271103263</v>
       </c>
       <c r="J8">
-        <v>1.030868469812509</v>
+        <v>1.046267083421593</v>
       </c>
       <c r="K8">
-        <v>1.038155015101076</v>
+        <v>1.052714151425225</v>
       </c>
       <c r="L8">
-        <v>1.025647237314868</v>
+        <v>1.048511098443448</v>
       </c>
       <c r="M8">
-        <v>1.036604559307548</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.059012528513074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.988362515472648</v>
+        <v>1.0096607966031</v>
       </c>
       <c r="D9">
-        <v>1.010545720450163</v>
+        <v>1.029987061755741</v>
       </c>
       <c r="E9">
-        <v>0.9961758531958187</v>
+        <v>1.024722331482338</v>
       </c>
       <c r="F9">
-        <v>1.006274648822836</v>
+        <v>1.035158238650347</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042180643581182</v>
+        <v>1.048679043767694</v>
       </c>
       <c r="J9">
-        <v>1.014333023928671</v>
+        <v>1.034876959707748</v>
       </c>
       <c r="K9">
-        <v>1.023469986790182</v>
+        <v>1.042611658474513</v>
       </c>
       <c r="L9">
-        <v>1.009331280720412</v>
+        <v>1.037426647449889</v>
       </c>
       <c r="M9">
-        <v>1.019266737964527</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.047705536346064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.972880483851266</v>
+        <v>0.9985042441888892</v>
       </c>
       <c r="D10">
-        <v>0.9982993953047733</v>
+        <v>1.021423516817142</v>
       </c>
       <c r="E10">
-        <v>0.9826721776163694</v>
+        <v>1.015459310377651</v>
       </c>
       <c r="F10">
-        <v>0.9920771346141363</v>
+        <v>1.025754800462824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03586558347077</v>
+        <v>1.045468487017057</v>
       </c>
       <c r="J10">
-        <v>1.002212989266992</v>
+        <v>1.026777332955266</v>
       </c>
       <c r="K10">
-        <v>1.012699422730801</v>
+        <v>1.035416444585325</v>
       </c>
       <c r="L10">
-        <v>0.9973615014609863</v>
+        <v>1.029554941573287</v>
       </c>
       <c r="M10">
-        <v>1.006590927625649</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.039674109612154</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9657817648598105</v>
+        <v>0.9934876322522633</v>
       </c>
       <c r="D11">
-        <v>0.9926944125324397</v>
+        <v>1.017579677327505</v>
       </c>
       <c r="E11">
-        <v>0.9764864103806169</v>
+        <v>1.011304858942757</v>
       </c>
       <c r="F11">
-        <v>0.9855828595286337</v>
+        <v>1.021536927188975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032953632121636</v>
+        <v>1.044012407101586</v>
       </c>
       <c r="J11">
-        <v>0.9966507547344545</v>
+        <v>1.023133865559188</v>
       </c>
       <c r="K11">
-        <v>1.007755429258131</v>
+        <v>1.032177510855139</v>
       </c>
       <c r="L11">
-        <v>0.9918658124680492</v>
+        <v>1.026016685421822</v>
       </c>
       <c r="M11">
-        <v>1.000781881634147</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.036063805279055</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9630783789175533</v>
+        <v>0.9915940729087918</v>
       </c>
       <c r="D12">
-        <v>0.9905616999201797</v>
+        <v>1.016129972617605</v>
       </c>
       <c r="E12">
-        <v>0.9741318047284959</v>
+        <v>1.00973847894178</v>
       </c>
       <c r="F12">
-        <v>0.9831122553046312</v>
+        <v>1.019946580610592</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031842357987249</v>
+        <v>1.043461020164484</v>
       </c>
       <c r="J12">
-        <v>0.9945319067373569</v>
+        <v>1.021758496996733</v>
       </c>
       <c r="K12">
-        <v>1.005871984634301</v>
+        <v>1.030954537647373</v>
       </c>
       <c r="L12">
-        <v>0.989771965421584</v>
+        <v>1.024681453461037</v>
       </c>
       <c r="M12">
-        <v>0.9985703109231394</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.034701359578995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9636614094070356</v>
+        <v>0.9920016518476817</v>
       </c>
       <c r="D13">
-        <v>0.9910215679425843</v>
+        <v>1.016441958027609</v>
       </c>
       <c r="E13">
-        <v>0.9746395611609532</v>
+        <v>1.010075552818954</v>
       </c>
       <c r="F13">
-        <v>0.9836449608628768</v>
+        <v>1.02028881415904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032082125136495</v>
+        <v>1.043579782144723</v>
       </c>
       <c r="J13">
-        <v>0.9949888959203248</v>
+        <v>1.022054541444297</v>
       </c>
       <c r="K13">
-        <v>1.006278206284978</v>
+        <v>1.031217792895877</v>
       </c>
       <c r="L13">
-        <v>0.9902235779006879</v>
+        <v>1.024968839332028</v>
       </c>
       <c r="M13">
-        <v>0.9990472389128613</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.034994603639764</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.965559707555839</v>
+        <v>0.9933317393584664</v>
       </c>
       <c r="D14">
-        <v>0.9925191919386777</v>
+        <v>1.017460301117904</v>
       </c>
       <c r="E14">
-        <v>0.9762929782962834</v>
+        <v>1.011175865693583</v>
       </c>
       <c r="F14">
-        <v>0.9853798688609199</v>
+        <v>1.02140596128793</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032862397706391</v>
+        <v>1.043967048083954</v>
       </c>
       <c r="J14">
-        <v>0.9964767227137816</v>
+        <v>1.023020635952923</v>
       </c>
       <c r="K14">
-        <v>1.00760073394938</v>
+        <v>1.032076833581618</v>
       </c>
       <c r="L14">
-        <v>0.9916938408663938</v>
+        <v>1.025906751491783</v>
       </c>
       <c r="M14">
-        <v>1.000600207225361</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.035951631178961</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9667202462896531</v>
+        <v>0.994147181145279</v>
       </c>
       <c r="D15">
-        <v>0.9934350234003684</v>
+        <v>1.018084781175599</v>
       </c>
       <c r="E15">
-        <v>0.9773039591129472</v>
+        <v>1.011850673363164</v>
       </c>
       <c r="F15">
-        <v>0.9864408663836813</v>
+        <v>1.02209108644282</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033339123103795</v>
+        <v>1.044204239431578</v>
       </c>
       <c r="J15">
-        <v>0.997386243569244</v>
+        <v>1.023612911377102</v>
       </c>
       <c r="K15">
-        <v>1.008409193911844</v>
+        <v>1.032603438458198</v>
       </c>
       <c r="L15">
-        <v>0.9925925795858777</v>
+        <v>1.026481805282916</v>
       </c>
       <c r="M15">
-        <v>1.001549721400962</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.036538402152722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9733426896409312</v>
+        <v>0.9988330792133145</v>
       </c>
       <c r="D16">
-        <v>0.9986645743327683</v>
+        <v>1.021675631929603</v>
       </c>
       <c r="E16">
-        <v>0.9830750783781689</v>
+        <v>1.015731865371612</v>
       </c>
       <c r="F16">
-        <v>0.9925003242903371</v>
+        <v>1.026031508074674</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036054857653582</v>
+        <v>1.045563681329567</v>
       </c>
       <c r="J16">
-        <v>1.002575061887153</v>
+        <v>1.027016138164714</v>
       </c>
       <c r="K16">
-        <v>1.013021233454957</v>
+        <v>1.035628690364795</v>
       </c>
       <c r="L16">
-        <v>0.9977191937706051</v>
+        <v>1.029786907994277</v>
       </c>
       <c r="M16">
-        <v>1.006969240662848</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.039910795286704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9773862926564546</v>
+        <v>1.00172116714516</v>
       </c>
       <c r="D17">
-        <v>1.001860504296806</v>
+        <v>1.023890694219933</v>
       </c>
       <c r="E17">
-        <v>0.9866005300486232</v>
+        <v>1.018126887413339</v>
       </c>
       <c r="F17">
-        <v>0.9962043564021399</v>
+        <v>1.028462971360472</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037708897333684</v>
+        <v>1.046398354998562</v>
       </c>
       <c r="J17">
-        <v>1.005742102956247</v>
+        <v>1.029113363739907</v>
       </c>
       <c r="K17">
-        <v>1.015835990584101</v>
+        <v>1.037492410255206</v>
       </c>
       <c r="L17">
-        <v>1.000847651597047</v>
+        <v>1.031824380121001</v>
       </c>
       <c r="M17">
-        <v>1.010279265920159</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.041989691482314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9797073086261175</v>
+        <v>1.003387982460823</v>
       </c>
       <c r="D18">
-        <v>1.003695880701854</v>
+        <v>1.025169714536153</v>
       </c>
       <c r="E18">
-        <v>0.9886246577432618</v>
+        <v>1.019510139065505</v>
       </c>
       <c r="F18">
-        <v>0.9983318828873554</v>
+        <v>1.029867226834888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038656771539257</v>
+        <v>1.046878895046238</v>
       </c>
       <c r="J18">
-        <v>1.00755949426247</v>
+        <v>1.030323604101236</v>
       </c>
       <c r="K18">
-        <v>1.017451121934586</v>
+        <v>1.038567682903001</v>
       </c>
       <c r="L18">
-        <v>1.002642676458617</v>
+        <v>1.033000390753782</v>
       </c>
       <c r="M18">
-        <v>1.012179472462782</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.04318958670836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9804925471024436</v>
+        <v>1.003953376182607</v>
       </c>
       <c r="D19">
-        <v>1.004316967616717</v>
+        <v>1.025603668467567</v>
       </c>
       <c r="E19">
-        <v>0.9893095376830873</v>
+        <v>1.019979512284297</v>
       </c>
       <c r="F19">
-        <v>0.9990518948510255</v>
+        <v>1.03034371955922</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038977188213964</v>
+        <v>1.047041694570272</v>
       </c>
       <c r="J19">
-        <v>1.008174262275928</v>
+        <v>1.030734098127842</v>
       </c>
       <c r="K19">
-        <v>1.017997452530969</v>
+        <v>1.03893235990861</v>
       </c>
       <c r="L19">
-        <v>1.003249839967397</v>
+        <v>1.033399316880102</v>
       </c>
       <c r="M19">
-        <v>1.012822382495048</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.043596610340072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9769563848098574</v>
+        <v>1.00141315494888</v>
       </c>
       <c r="D20">
-        <v>1.001520621439719</v>
+        <v>1.023654392998207</v>
       </c>
       <c r="E20">
-        <v>0.9862256545026169</v>
+        <v>1.017871355307367</v>
       </c>
       <c r="F20">
-        <v>0.9958104011919049</v>
+        <v>1.0282035555989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037533202416358</v>
+        <v>1.046309459569987</v>
       </c>
       <c r="J20">
-        <v>1.005405438428491</v>
+        <v>1.028889710320597</v>
       </c>
       <c r="K20">
-        <v>1.015536785148515</v>
+        <v>1.037293681006345</v>
       </c>
       <c r="L20">
-        <v>1.000515111966792</v>
+        <v>1.031607072667297</v>
       </c>
       <c r="M20">
-        <v>1.009927321871933</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.041767968432502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9650026096184793</v>
+        <v>0.992940913841154</v>
       </c>
       <c r="D21">
-        <v>0.9920796283315921</v>
+        <v>1.017161042997886</v>
       </c>
       <c r="E21">
-        <v>0.9758077139250273</v>
+        <v>1.010852506592523</v>
       </c>
       <c r="F21">
-        <v>0.9848706479611518</v>
+        <v>1.021077656333386</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032633471788402</v>
+        <v>1.043853304140813</v>
       </c>
       <c r="J21">
-        <v>0.9960401017297372</v>
+        <v>1.022736766386019</v>
       </c>
       <c r="K21">
-        <v>1.007212624453981</v>
+        <v>1.031824428144963</v>
       </c>
       <c r="L21">
-        <v>0.9912623836314791</v>
+        <v>1.025631151098486</v>
       </c>
       <c r="M21">
-        <v>1.000144433622135</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.03567041440702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9570968238798195</v>
+        <v>0.9874382431814086</v>
       </c>
       <c r="D22">
-        <v>0.9858465607180316</v>
+        <v>1.01295064628945</v>
       </c>
       <c r="E22">
-        <v>0.9689242919864774</v>
+        <v>1.006304105575609</v>
       </c>
       <c r="F22">
-        <v>0.9776508910892617</v>
+        <v>1.016459574371605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029379413732646</v>
+        <v>1.042247710456542</v>
       </c>
       <c r="J22">
-        <v>0.9898428057728537</v>
+        <v>1.018739859990839</v>
       </c>
       <c r="K22">
-        <v>1.001703712627637</v>
+        <v>1.028269841185002</v>
       </c>
       <c r="L22">
-        <v>0.9851375664841622</v>
+        <v>1.021751702891899</v>
       </c>
       <c r="M22">
-        <v>0.9936784810972702</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.031711866911579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9613275806414385</v>
+        <v>0.9903728002702403</v>
       </c>
       <c r="D23">
-        <v>0.9891810415940157</v>
+        <v>1.01519532351461</v>
       </c>
       <c r="E23">
-        <v>0.9726072302058917</v>
+        <v>1.008728736135157</v>
       </c>
       <c r="F23">
-        <v>0.9815129823959338</v>
+        <v>1.018921374517292</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03112202613382</v>
+        <v>1.043104907549028</v>
       </c>
       <c r="J23">
-        <v>0.9931595275675693</v>
+        <v>1.020871418747197</v>
       </c>
       <c r="K23">
-        <v>1.004652053961009</v>
+        <v>1.030165667215785</v>
       </c>
       <c r="L23">
-        <v>0.98841568314558</v>
+        <v>1.023820383129145</v>
       </c>
       <c r="M23">
-        <v>0.9971382487254419</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.033822734287327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9771507571643936</v>
+        <v>1.00155238711091</v>
       </c>
       <c r="D24">
-        <v>1.001674288341485</v>
+        <v>1.023761207372456</v>
       </c>
       <c r="E24">
-        <v>0.986395143713714</v>
+        <v>1.017986861555109</v>
       </c>
       <c r="F24">
-        <v>0.995988514029471</v>
+        <v>1.028320817480272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037612643391003</v>
+        <v>1.046349647043464</v>
       </c>
       <c r="J24">
-        <v>1.005557654596041</v>
+        <v>1.028990809843798</v>
       </c>
       <c r="K24">
-        <v>1.01567206525886</v>
+        <v>1.037383514576181</v>
       </c>
       <c r="L24">
-        <v>1.000665463846963</v>
+        <v>1.0317053028009</v>
       </c>
       <c r="M24">
-        <v>1.010086443996091</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.041868194639747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940558980505327</v>
+        <v>1.013835202073623</v>
       </c>
       <c r="D25">
-        <v>1.015056046721168</v>
+        <v>1.033196140436059</v>
       </c>
       <c r="E25">
-        <v>1.001145392720266</v>
+        <v>1.028196597687096</v>
       </c>
       <c r="F25">
-        <v>1.011507161392354</v>
+        <v>1.038684714732514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04448842174515</v>
+        <v>1.049869155362703</v>
       </c>
       <c r="J25">
-        <v>1.018784974299597</v>
+        <v>1.037905761774744</v>
       </c>
       <c r="K25">
-        <v>1.027425047969295</v>
+        <v>1.045300093371204</v>
       </c>
       <c r="L25">
-        <v>1.013725953925308</v>
+        <v>1.040372416611682</v>
       </c>
       <c r="M25">
-        <v>1.023929431701806</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.05071077889897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023146881010899</v>
+        <v>1.030406119515807</v>
       </c>
       <c r="D2">
-        <v>1.040362872526489</v>
+        <v>1.045680826850436</v>
       </c>
       <c r="E2">
-        <v>1.035962706005953</v>
+        <v>1.041774028476899</v>
       </c>
       <c r="F2">
-        <v>1.046566358201836</v>
+        <v>1.052155075999813</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05249831232628</v>
+        <v>1.054474021894451</v>
       </c>
       <c r="J2">
-        <v>1.044656646486391</v>
+        <v>1.051713923360277</v>
       </c>
       <c r="K2">
-        <v>1.051287132451004</v>
+        <v>1.056538428053453</v>
       </c>
       <c r="L2">
-        <v>1.046942766740752</v>
+        <v>1.052680517315818</v>
       </c>
       <c r="M2">
-        <v>1.057412941537269</v>
+        <v>1.062932656214652</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029657434171538</v>
+        <v>1.038348646793924</v>
       </c>
       <c r="D3">
-        <v>1.045379701451479</v>
+        <v>1.051886967312824</v>
       </c>
       <c r="E3">
-        <v>1.04140582209422</v>
+        <v>1.048499774576898</v>
       </c>
       <c r="F3">
-        <v>1.052089283375549</v>
+        <v>1.058918410574181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054312800009921</v>
+        <v>1.05685447895794</v>
       </c>
       <c r="J3">
-        <v>1.049371009459944</v>
+        <v>1.057845809434077</v>
       </c>
       <c r="K3">
-        <v>1.055463087393623</v>
+        <v>1.06189635080846</v>
       </c>
       <c r="L3">
-        <v>1.051534961972553</v>
+        <v>1.058547536812584</v>
       </c>
       <c r="M3">
-        <v>1.062096384156616</v>
+        <v>1.068849088297343</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033763267884386</v>
+        <v>1.043335328664686</v>
       </c>
       <c r="D4">
-        <v>1.048545661010943</v>
+        <v>1.055785339413502</v>
       </c>
       <c r="E4">
-        <v>1.044844042940537</v>
+        <v>1.052727751074098</v>
       </c>
       <c r="F4">
-        <v>1.055577326456339</v>
+        <v>1.063169747320382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05544571939528</v>
+        <v>1.058336449268921</v>
       </c>
       <c r="J4">
-        <v>1.052341036139732</v>
+        <v>1.06169191630225</v>
       </c>
       <c r="K4">
-        <v>1.058091467059726</v>
+        <v>1.065254063361772</v>
       </c>
       <c r="L4">
-        <v>1.054429766828872</v>
+        <v>1.062228871392921</v>
       </c>
       <c r="M4">
-        <v>1.065048247107669</v>
+        <v>1.072561168830462</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035464992532263</v>
+        <v>1.045397272894434</v>
       </c>
       <c r="D5">
-        <v>1.049858264116661</v>
+        <v>1.05739761443271</v>
       </c>
       <c r="E5">
-        <v>1.046270323988052</v>
+        <v>1.054477138083048</v>
       </c>
       <c r="F5">
-        <v>1.057024126639823</v>
+        <v>1.064928725230639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055912491233332</v>
+        <v>1.058946142220136</v>
       </c>
       <c r="J5">
-        <v>1.053571219671961</v>
+        <v>1.063281268488139</v>
       </c>
       <c r="K5">
-        <v>1.059179531355029</v>
+        <v>1.06664086133243</v>
       </c>
       <c r="L5">
-        <v>1.055629203405361</v>
+        <v>1.063750445773571</v>
       </c>
       <c r="M5">
-        <v>1.066271206596644</v>
+        <v>1.074095379571493</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035749324866538</v>
+        <v>1.045741519354409</v>
       </c>
       <c r="D6">
-        <v>1.0500776025776</v>
+        <v>1.057666804185401</v>
       </c>
       <c r="E6">
-        <v>1.046508705784519</v>
+        <v>1.054769267870193</v>
       </c>
       <c r="F6">
-        <v>1.057265928967279</v>
+        <v>1.065222451920158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055990316490091</v>
+        <v>1.059047748457602</v>
       </c>
       <c r="J6">
-        <v>1.053776716684535</v>
+        <v>1.063546555262167</v>
       </c>
       <c r="K6">
-        <v>1.059361251527733</v>
+        <v>1.06687229498287</v>
       </c>
       <c r="L6">
-        <v>1.055829588138729</v>
+        <v>1.064004437379889</v>
       </c>
       <c r="M6">
-        <v>1.066475514009344</v>
+        <v>1.074351476047475</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033786100595532</v>
+        <v>1.043363013222732</v>
       </c>
       <c r="D7">
-        <v>1.048563271163208</v>
+        <v>1.055806985330618</v>
       </c>
       <c r="E7">
-        <v>1.044863175035167</v>
+        <v>1.052751234636867</v>
       </c>
       <c r="F7">
-        <v>1.055596734390848</v>
+        <v>1.063193359939039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05545199333542</v>
+        <v>1.058344647575728</v>
       </c>
       <c r="J7">
-        <v>1.052357545189105</v>
+        <v>1.061713259584737</v>
       </c>
       <c r="K7">
-        <v>1.058106071307177</v>
+        <v>1.06527268949085</v>
       </c>
       <c r="L7">
-        <v>1.054445861643768</v>
+        <v>1.062249303274936</v>
       </c>
       <c r="M7">
-        <v>1.065064658047241</v>
+        <v>1.072581770690663</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025370062507771</v>
+        <v>1.033123261353231</v>
       </c>
       <c r="D8">
-        <v>1.042075482379521</v>
+        <v>1.047803482304918</v>
       </c>
       <c r="E8">
-        <v>1.037820168768504</v>
+        <v>1.04407373872542</v>
       </c>
       <c r="F8">
-        <v>1.048451175444491</v>
+        <v>1.054467688900596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053120271103263</v>
+        <v>1.055290992230196</v>
       </c>
       <c r="J8">
-        <v>1.046267083421593</v>
+        <v>1.053812395184145</v>
       </c>
       <c r="K8">
-        <v>1.052714151425225</v>
+        <v>1.058372636437355</v>
       </c>
       <c r="L8">
-        <v>1.048511098443448</v>
+        <v>1.054688049322271</v>
       </c>
       <c r="M8">
-        <v>1.059012528513074</v>
+        <v>1.064957144360835</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0096607966031</v>
+        <v>1.013805775448723</v>
       </c>
       <c r="D9">
-        <v>1.029987061755741</v>
+        <v>1.032725828384487</v>
       </c>
       <c r="E9">
-        <v>1.024722331482338</v>
+        <v>1.027751255236495</v>
       </c>
       <c r="F9">
-        <v>1.035158238650347</v>
+        <v>1.038052937835866</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048679043767694</v>
+        <v>1.049431281890943</v>
       </c>
       <c r="J9">
-        <v>1.034876959707748</v>
+        <v>1.038880261638655</v>
       </c>
       <c r="K9">
-        <v>1.042611658474513</v>
+        <v>1.045309363211511</v>
       </c>
       <c r="L9">
-        <v>1.037426647449889</v>
+        <v>1.040409579730668</v>
       </c>
       <c r="M9">
-        <v>1.047705536346064</v>
+        <v>1.05055739251484</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9985042441888892</v>
+        <v>0.9999056134234515</v>
       </c>
       <c r="D10">
-        <v>1.021423516817142</v>
+        <v>1.021900255807574</v>
       </c>
       <c r="E10">
-        <v>1.015459310377651</v>
+        <v>1.016047044607425</v>
       </c>
       <c r="F10">
-        <v>1.025754800462824</v>
+        <v>1.026282278606958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045468487017057</v>
+        <v>1.045152515950618</v>
       </c>
       <c r="J10">
-        <v>1.026777332955266</v>
+        <v>1.028122976687672</v>
       </c>
       <c r="K10">
-        <v>1.035416444585325</v>
+        <v>1.035885040985604</v>
       </c>
       <c r="L10">
-        <v>1.029554941573287</v>
+        <v>1.0301324857446</v>
       </c>
       <c r="M10">
-        <v>1.039674109612154</v>
+        <v>1.040192676994936</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9934876322522633</v>
+        <v>0.9936005603905788</v>
       </c>
       <c r="D11">
-        <v>1.017579677327505</v>
+        <v>1.01699789775123</v>
       </c>
       <c r="E11">
-        <v>1.011304858942757</v>
+        <v>1.010749926686673</v>
       </c>
       <c r="F11">
-        <v>1.021536927188975</v>
+        <v>1.020955236404389</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044012407101586</v>
+        <v>1.043198195086548</v>
       </c>
       <c r="J11">
-        <v>1.023133865559188</v>
+        <v>1.023242008313945</v>
       </c>
       <c r="K11">
-        <v>1.032177510855139</v>
+        <v>1.031606223399116</v>
       </c>
       <c r="L11">
-        <v>1.026016685421822</v>
+        <v>1.025471923193316</v>
       </c>
       <c r="M11">
-        <v>1.036063805279055</v>
+        <v>1.035492499718114</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9915940729087918</v>
+        <v>0.9912112306802281</v>
       </c>
       <c r="D12">
-        <v>1.016129972617605</v>
+        <v>1.015141574927509</v>
       </c>
       <c r="E12">
-        <v>1.00973847894178</v>
+        <v>1.008744550404419</v>
       </c>
       <c r="F12">
-        <v>1.019946580610592</v>
+        <v>1.018938575000087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043461020164484</v>
+        <v>1.042455696345866</v>
       </c>
       <c r="J12">
-        <v>1.021758496996733</v>
+        <v>1.02139226140775</v>
       </c>
       <c r="K12">
-        <v>1.030954537647373</v>
+        <v>1.029984324120108</v>
       </c>
       <c r="L12">
-        <v>1.024681453461037</v>
+        <v>1.023706114555111</v>
       </c>
       <c r="M12">
-        <v>1.034701359578995</v>
+        <v>1.033711719061556</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9920016518476817</v>
+        <v>0.9917259694349461</v>
       </c>
       <c r="D13">
-        <v>1.016441958027609</v>
+        <v>1.015541417327101</v>
       </c>
       <c r="E13">
-        <v>1.010075552818954</v>
+        <v>1.009176479693532</v>
       </c>
       <c r="F13">
-        <v>1.02028881415904</v>
+        <v>1.019372932609168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043579782144723</v>
+        <v>1.042615738062411</v>
       </c>
       <c r="J13">
-        <v>1.022054541444297</v>
+        <v>1.021790757717998</v>
       </c>
       <c r="K13">
-        <v>1.031217792895877</v>
+        <v>1.030333749504903</v>
       </c>
       <c r="L13">
-        <v>1.024968839332028</v>
+        <v>1.024086508722493</v>
       </c>
       <c r="M13">
-        <v>1.034994603639764</v>
+        <v>1.034095336516164</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9933317393584664</v>
+        <v>0.993404050987719</v>
       </c>
       <c r="D14">
-        <v>1.017460301117904</v>
+        <v>1.016845194447803</v>
       </c>
       <c r="E14">
-        <v>1.011175865693583</v>
+        <v>1.010584953705798</v>
       </c>
       <c r="F14">
-        <v>1.02140596128793</v>
+        <v>1.02078933403473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043967048083954</v>
+        <v>1.043137166314974</v>
       </c>
       <c r="J14">
-        <v>1.023020635952923</v>
+        <v>1.023089877403528</v>
       </c>
       <c r="K14">
-        <v>1.032076833581618</v>
+        <v>1.031472838422479</v>
       </c>
       <c r="L14">
-        <v>1.025906751491783</v>
+        <v>1.025326687196472</v>
       </c>
       <c r="M14">
-        <v>1.035951631178961</v>
+        <v>1.035346031412819</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.994147181145279</v>
+        <v>0.9944315571431893</v>
       </c>
       <c r="D15">
-        <v>1.018084781175599</v>
+        <v>1.017643708093501</v>
       </c>
       <c r="E15">
-        <v>1.011850673363164</v>
+        <v>1.011447644783465</v>
       </c>
       <c r="F15">
-        <v>1.02209108644282</v>
+        <v>1.021656887056203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044204239431578</v>
+        <v>1.043456196500687</v>
       </c>
       <c r="J15">
-        <v>1.023612911377102</v>
+        <v>1.023885335427643</v>
       </c>
       <c r="K15">
-        <v>1.032603438458198</v>
+        <v>1.032170264293953</v>
       </c>
       <c r="L15">
-        <v>1.026481805282916</v>
+        <v>1.026086110163521</v>
       </c>
       <c r="M15">
-        <v>1.036538402152722</v>
+        <v>1.036111899620727</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9988330792133145</v>
+        <v>1.000317671092864</v>
       </c>
       <c r="D16">
-        <v>1.021675631929603</v>
+        <v>1.022220828450815</v>
       </c>
       <c r="E16">
-        <v>1.015731865371612</v>
+        <v>1.016393492353581</v>
       </c>
       <c r="F16">
-        <v>1.026031508074674</v>
+        <v>1.026630688299126</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045563681329567</v>
+        <v>1.045279969226987</v>
       </c>
       <c r="J16">
-        <v>1.027016138164714</v>
+        <v>1.028441945980565</v>
       </c>
       <c r="K16">
-        <v>1.035628690364795</v>
+        <v>1.036164608981684</v>
       </c>
       <c r="L16">
-        <v>1.029786907994277</v>
+        <v>1.030437106360194</v>
       </c>
       <c r="M16">
-        <v>1.039910795286704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.040499890939731</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00172116714516</v>
+        <v>1.00393036188062</v>
       </c>
       <c r="D17">
-        <v>1.023890694219933</v>
+        <v>1.025032365094806</v>
       </c>
       <c r="E17">
-        <v>1.018126887413339</v>
+        <v>1.019432311218461</v>
       </c>
       <c r="F17">
-        <v>1.028462971360472</v>
+        <v>1.02968673521016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046398354998562</v>
+        <v>1.046395901643621</v>
       </c>
       <c r="J17">
-        <v>1.029113363739907</v>
+        <v>1.031238335470654</v>
       </c>
       <c r="K17">
-        <v>1.037492410255206</v>
+        <v>1.038615274477051</v>
       </c>
       <c r="L17">
-        <v>1.031824380121001</v>
+        <v>1.033107989592772</v>
       </c>
       <c r="M17">
-        <v>1.041989691482314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.043193527914057</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003387982460823</v>
+        <v>1.006010294043179</v>
       </c>
       <c r="D18">
-        <v>1.025169714536153</v>
+        <v>1.026651790243972</v>
       </c>
       <c r="E18">
-        <v>1.019510139065505</v>
+        <v>1.02118294648443</v>
       </c>
       <c r="F18">
-        <v>1.029867226834888</v>
+        <v>1.031447307913628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046878895046238</v>
+        <v>1.04703710205329</v>
       </c>
       <c r="J18">
-        <v>1.030323604101236</v>
+        <v>1.032848146969601</v>
       </c>
       <c r="K18">
-        <v>1.038567682903001</v>
+        <v>1.040025808080115</v>
       </c>
       <c r="L18">
-        <v>1.033000390753782</v>
+        <v>1.034645785005704</v>
       </c>
       <c r="M18">
-        <v>1.04318958670836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.044744434074772</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003953376182607</v>
+        <v>1.006714991112788</v>
       </c>
       <c r="D19">
-        <v>1.025603668467567</v>
+        <v>1.027200583153217</v>
       </c>
       <c r="E19">
-        <v>1.019979512284297</v>
+        <v>1.021776255695646</v>
       </c>
       <c r="F19">
-        <v>1.03034371955922</v>
+        <v>1.032043986568635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047041694570272</v>
+        <v>1.047254125951773</v>
       </c>
       <c r="J19">
-        <v>1.030734098127842</v>
+        <v>1.033393533708814</v>
       </c>
       <c r="K19">
-        <v>1.03893235990861</v>
+        <v>1.040503637283788</v>
       </c>
       <c r="L19">
-        <v>1.033399316880102</v>
+        <v>1.035166812427783</v>
       </c>
       <c r="M19">
-        <v>1.043596610340072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.045269904771521</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00141315494888</v>
+        <v>1.003545606570669</v>
       </c>
       <c r="D20">
-        <v>1.023654392998207</v>
+        <v>1.024732854929238</v>
       </c>
       <c r="E20">
-        <v>1.017871355307367</v>
+        <v>1.019108558319167</v>
       </c>
       <c r="F20">
-        <v>1.0282035555989</v>
+        <v>1.029361145408298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046309459569987</v>
+        <v>1.046277185336645</v>
       </c>
       <c r="J20">
-        <v>1.028889710320597</v>
+        <v>1.030940531923618</v>
       </c>
       <c r="K20">
-        <v>1.037293681006345</v>
+        <v>1.038354315052213</v>
       </c>
       <c r="L20">
-        <v>1.031607072667297</v>
+        <v>1.032823527315988</v>
       </c>
       <c r="M20">
-        <v>1.041767968432502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.042906641084436</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.992940913841154</v>
+        <v>0.9929112429957907</v>
       </c>
       <c r="D21">
-        <v>1.017161042997886</v>
+        <v>1.016462267916571</v>
       </c>
       <c r="E21">
-        <v>1.010852506592523</v>
+        <v>1.010171265799695</v>
       </c>
       <c r="F21">
-        <v>1.021077656333386</v>
+        <v>1.020373316361106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043853304140813</v>
+        <v>1.042984087753921</v>
       </c>
       <c r="J21">
-        <v>1.022736766386019</v>
+        <v>1.022708361410982</v>
       </c>
       <c r="K21">
-        <v>1.031824428144963</v>
+        <v>1.031138328290083</v>
       </c>
       <c r="L21">
-        <v>1.025631151098486</v>
+        <v>1.024962469079666</v>
       </c>
       <c r="M21">
-        <v>1.03567041440702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.034978723622205</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9874382431814086</v>
+        <v>0.9859484029625721</v>
       </c>
       <c r="D22">
-        <v>1.01295064628945</v>
+        <v>1.011055730119099</v>
       </c>
       <c r="E22">
-        <v>1.006304105575609</v>
+        <v>1.004331365074349</v>
       </c>
       <c r="F22">
-        <v>1.016459574371605</v>
+        <v>1.014500660961747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042247710456542</v>
+        <v>1.040816888443999</v>
       </c>
       <c r="J22">
-        <v>1.018739859990839</v>
+        <v>1.017317968373871</v>
       </c>
       <c r="K22">
-        <v>1.028269841185002</v>
+        <v>1.026411306993685</v>
       </c>
       <c r="L22">
-        <v>1.021751702891899</v>
+        <v>1.019817502355256</v>
       </c>
       <c r="M22">
-        <v>1.031711866911579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.029790228120188</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9903728002702403</v>
+        <v>0.9896673749832153</v>
       </c>
       <c r="D23">
-        <v>1.01519532351461</v>
+        <v>1.013942559988528</v>
       </c>
       <c r="E23">
-        <v>1.008728736135157</v>
+        <v>1.007449374653221</v>
       </c>
       <c r="F23">
-        <v>1.018921374517292</v>
+        <v>1.017636125894467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043104907549028</v>
+        <v>1.04197541546985</v>
       </c>
       <c r="J23">
-        <v>1.020871418747197</v>
+        <v>1.020197052052555</v>
       </c>
       <c r="K23">
-        <v>1.030165667215785</v>
+        <v>1.028936245922158</v>
       </c>
       <c r="L23">
-        <v>1.023820383129145</v>
+        <v>1.022565261781493</v>
       </c>
       <c r="M23">
-        <v>1.033822734287327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.032561206297134</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00155238711091</v>
+        <v>1.003719544943305</v>
       </c>
       <c r="D24">
-        <v>1.023761207372456</v>
+        <v>1.024868253792471</v>
       </c>
       <c r="E24">
-        <v>1.017986861555109</v>
+        <v>1.019254915612128</v>
       </c>
       <c r="F24">
-        <v>1.028320817480272</v>
+        <v>1.029508333062923</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046349647043464</v>
+        <v>1.046330858016828</v>
       </c>
       <c r="J24">
-        <v>1.028990809843798</v>
+        <v>1.031075162034931</v>
       </c>
       <c r="K24">
-        <v>1.037383514576181</v>
+        <v>1.038472289576662</v>
       </c>
       <c r="L24">
-        <v>1.0317053028009</v>
+        <v>1.032952125419786</v>
       </c>
       <c r="M24">
-        <v>1.041868194639747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.043036335236793</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013835202073623</v>
+        <v>1.018966585294331</v>
       </c>
       <c r="D25">
-        <v>1.033196140436059</v>
+        <v>1.036750615649223</v>
       </c>
       <c r="E25">
-        <v>1.028196597687096</v>
+        <v>1.03210562143392</v>
       </c>
       <c r="F25">
-        <v>1.038684714732514</v>
+        <v>1.042432031379494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049869155362703</v>
+        <v>1.051007726020582</v>
       </c>
       <c r="J25">
-        <v>1.037905761774744</v>
+        <v>1.042872083826579</v>
       </c>
       <c r="K25">
-        <v>1.045300093371204</v>
+        <v>1.048804007784113</v>
       </c>
       <c r="L25">
-        <v>1.040372416611682</v>
+        <v>1.044225174884761</v>
       </c>
       <c r="M25">
-        <v>1.05071077889897</v>
+        <v>1.054405511916885</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.030406119515807</v>
+        <v>1.077679419419598</v>
       </c>
       <c r="D2">
-        <v>1.045680826850436</v>
+        <v>1.077051058944553</v>
       </c>
       <c r="E2">
-        <v>1.041774028476899</v>
+        <v>1.0804264580099</v>
       </c>
       <c r="F2">
-        <v>1.052155075999813</v>
+        <v>1.089170678772191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054474021894451</v>
+        <v>1.050287125591677</v>
       </c>
       <c r="J2">
-        <v>1.051713923360277</v>
+        <v>1.082572676276497</v>
       </c>
       <c r="K2">
-        <v>1.056538428053453</v>
+        <v>1.079733377003637</v>
       </c>
       <c r="L2">
-        <v>1.052680517315818</v>
+        <v>1.083099922956953</v>
       </c>
       <c r="M2">
-        <v>1.062932656214652</v>
+        <v>1.0918214844453</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.038348646793924</v>
+        <v>1.079274077384807</v>
       </c>
       <c r="D3">
-        <v>1.051886967312824</v>
+        <v>1.078302463502724</v>
       </c>
       <c r="E3">
-        <v>1.048499774576898</v>
+        <v>1.081814909288512</v>
       </c>
       <c r="F3">
-        <v>1.058918410574181</v>
+        <v>1.090561679395764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05685447895794</v>
+        <v>1.050673018726119</v>
       </c>
       <c r="J3">
-        <v>1.057845809434077</v>
+        <v>1.083824640796738</v>
       </c>
       <c r="K3">
-        <v>1.06189635080846</v>
+        <v>1.080801342285464</v>
       </c>
       <c r="L3">
-        <v>1.058547536812584</v>
+        <v>1.084305246673492</v>
       </c>
       <c r="M3">
-        <v>1.068849088297343</v>
+        <v>1.093031003619709</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.043335328664686</v>
+        <v>1.080304654526588</v>
       </c>
       <c r="D4">
-        <v>1.055785339413502</v>
+        <v>1.079110843163894</v>
       </c>
       <c r="E4">
-        <v>1.052727751074098</v>
+        <v>1.08271230434714</v>
       </c>
       <c r="F4">
-        <v>1.063169747320382</v>
+        <v>1.091460663694052</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058336449268921</v>
+        <v>1.050920746271911</v>
       </c>
       <c r="J4">
-        <v>1.06169191630225</v>
+        <v>1.084633051092644</v>
       </c>
       <c r="K4">
-        <v>1.065254063361772</v>
+        <v>1.081490460681232</v>
       </c>
       <c r="L4">
-        <v>1.062228871392921</v>
+        <v>1.085083608082098</v>
       </c>
       <c r="M4">
-        <v>1.072561168830462</v>
+        <v>1.093812017004684</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.045397272894434</v>
+        <v>1.080737612399024</v>
       </c>
       <c r="D5">
-        <v>1.05739761443271</v>
+        <v>1.07945036516801</v>
       </c>
       <c r="E5">
-        <v>1.054477138083048</v>
+        <v>1.083089329772964</v>
       </c>
       <c r="F5">
-        <v>1.064928725230639</v>
+        <v>1.091838342704078</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058946142220136</v>
+        <v>1.05102442116833</v>
       </c>
       <c r="J5">
-        <v>1.063281268488139</v>
+        <v>1.08497250717956</v>
       </c>
       <c r="K5">
-        <v>1.06664086133243</v>
+        <v>1.081779709941692</v>
       </c>
       <c r="L5">
-        <v>1.063750445773571</v>
+        <v>1.08541046253944</v>
       </c>
       <c r="M5">
-        <v>1.074095379571493</v>
+        <v>1.094139971259656</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.045741519354409</v>
+        <v>1.080810290761981</v>
       </c>
       <c r="D6">
-        <v>1.057666804185401</v>
+        <v>1.079507353751882</v>
       </c>
       <c r="E6">
-        <v>1.054769267870193</v>
+        <v>1.083152620136098</v>
       </c>
       <c r="F6">
-        <v>1.065222451920158</v>
+        <v>1.091901741952299</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059047748457602</v>
+        <v>1.05104180115396</v>
       </c>
       <c r="J6">
-        <v>1.063546555262167</v>
+        <v>1.085029480092796</v>
       </c>
       <c r="K6">
-        <v>1.06687229498287</v>
+        <v>1.08182824956646</v>
       </c>
       <c r="L6">
-        <v>1.064004437379889</v>
+        <v>1.085465321385388</v>
       </c>
       <c r="M6">
-        <v>1.074351476047475</v>
+        <v>1.094195013879437</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.043363013222732</v>
+        <v>1.080310440886963</v>
       </c>
       <c r="D7">
-        <v>1.055806985330618</v>
+        <v>1.079115381127348</v>
       </c>
       <c r="E7">
-        <v>1.052751234636867</v>
+        <v>1.082717343112671</v>
       </c>
       <c r="F7">
-        <v>1.063193359939039</v>
+        <v>1.091465711250011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058344647575728</v>
+        <v>1.050922133424181</v>
       </c>
       <c r="J7">
-        <v>1.061713259584737</v>
+        <v>1.084637588484167</v>
       </c>
       <c r="K7">
-        <v>1.06527268949085</v>
+        <v>1.081494327429913</v>
       </c>
       <c r="L7">
-        <v>1.062249303274936</v>
+        <v>1.085087976969018</v>
       </c>
       <c r="M7">
-        <v>1.072581770690663</v>
+        <v>1.093816400646543</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.033123261353231</v>
+        <v>1.078218610023318</v>
       </c>
       <c r="D8">
-        <v>1.047803482304918</v>
+        <v>1.077474262429914</v>
       </c>
       <c r="E8">
-        <v>1.04407373872542</v>
+        <v>1.080895907699891</v>
       </c>
       <c r="F8">
-        <v>1.054467688900596</v>
+        <v>1.089641002472957</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055290992230196</v>
+        <v>1.050417949399115</v>
       </c>
       <c r="J8">
-        <v>1.053812395184145</v>
+        <v>1.082996138053326</v>
       </c>
       <c r="K8">
-        <v>1.058372636437355</v>
+        <v>1.080094702859812</v>
       </c>
       <c r="L8">
-        <v>1.054688049322271</v>
+        <v>1.083507594925812</v>
       </c>
       <c r="M8">
-        <v>1.064957144360835</v>
+        <v>1.092230587244521</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013805775448723</v>
+        <v>1.074522424224321</v>
       </c>
       <c r="D9">
-        <v>1.032725828384487</v>
+        <v>1.074571719545457</v>
       </c>
       <c r="E9">
-        <v>1.027751255236495</v>
+        <v>1.077678174874104</v>
       </c>
       <c r="F9">
-        <v>1.038052937835866</v>
+        <v>1.086417042954855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049431281890943</v>
+        <v>1.049514320603024</v>
       </c>
       <c r="J9">
-        <v>1.038880261638655</v>
+        <v>1.080090442810736</v>
       </c>
       <c r="K9">
-        <v>1.045309363211511</v>
+        <v>1.077613400672973</v>
       </c>
       <c r="L9">
-        <v>1.040409579730668</v>
+        <v>1.080710529878791</v>
       </c>
       <c r="M9">
-        <v>1.05055739251484</v>
+        <v>1.089423473702824</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9999056134234515</v>
+        <v>1.072050994147459</v>
       </c>
       <c r="D10">
-        <v>1.021900255807574</v>
+        <v>1.072629164192416</v>
       </c>
       <c r="E10">
-        <v>1.016047044607425</v>
+        <v>1.075527166485464</v>
       </c>
       <c r="F10">
-        <v>1.026282278606958</v>
+        <v>1.084261580086386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045152515950618</v>
+        <v>1.048901551965604</v>
       </c>
       <c r="J10">
-        <v>1.028122976687672</v>
+        <v>1.078144021445738</v>
       </c>
       <c r="K10">
-        <v>1.035885040985604</v>
+        <v>1.075948800878152</v>
       </c>
       <c r="L10">
-        <v>1.0301324857446</v>
+        <v>1.078837239361449</v>
       </c>
       <c r="M10">
-        <v>1.040192676994936</v>
+        <v>1.087543166998733</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9936005603905788</v>
+        <v>1.070978991348959</v>
       </c>
       <c r="D11">
-        <v>1.01699789775123</v>
+        <v>1.071786153617815</v>
       </c>
       <c r="E11">
-        <v>1.010749926686673</v>
+        <v>1.074594281183619</v>
       </c>
       <c r="F11">
-        <v>1.020955236404389</v>
+        <v>1.083326695066479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043198195086548</v>
+        <v>1.04863373117173</v>
       </c>
       <c r="J11">
-        <v>1.023242008313945</v>
+        <v>1.077298909981148</v>
       </c>
       <c r="K11">
-        <v>1.031606223399116</v>
+        <v>1.075225471857247</v>
       </c>
       <c r="L11">
-        <v>1.025471923193316</v>
+        <v>1.078023968494263</v>
       </c>
       <c r="M11">
-        <v>1.035492499718114</v>
+        <v>1.086726783668431</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9912112306802281</v>
+        <v>1.070580512906882</v>
       </c>
       <c r="D12">
-        <v>1.015141574927509</v>
+        <v>1.071472734056824</v>
       </c>
       <c r="E12">
-        <v>1.008744550404419</v>
+        <v>1.07424753547534</v>
       </c>
       <c r="F12">
-        <v>1.018938575000087</v>
+        <v>1.082979196010138</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042455696345866</v>
+        <v>1.048533874133648</v>
       </c>
       <c r="J12">
-        <v>1.02139226140775</v>
+        <v>1.076984645206497</v>
       </c>
       <c r="K12">
-        <v>1.029984324120108</v>
+        <v>1.074956406354372</v>
       </c>
       <c r="L12">
-        <v>1.023706114555111</v>
+        <v>1.0777215574259</v>
       </c>
       <c r="M12">
-        <v>1.033711719061556</v>
+        <v>1.086423205383225</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9917259694349461</v>
+        <v>1.07066600111616</v>
       </c>
       <c r="D13">
-        <v>1.015541417327101</v>
+        <v>1.071539976753689</v>
       </c>
       <c r="E13">
-        <v>1.009176479693532</v>
+        <v>1.074321924162378</v>
       </c>
       <c r="F13">
-        <v>1.019372932609168</v>
+        <v>1.08305374676951</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042615738062411</v>
+        <v>1.048555310886747</v>
       </c>
       <c r="J13">
-        <v>1.021790757717998</v>
+        <v>1.07705207215066</v>
       </c>
       <c r="K13">
-        <v>1.030333749504903</v>
+        <v>1.075014139518919</v>
       </c>
       <c r="L13">
-        <v>1.024086508722493</v>
+        <v>1.077786440494267</v>
       </c>
       <c r="M13">
-        <v>1.034095336516164</v>
+        <v>1.086488339325179</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.993404050987719</v>
+        <v>1.070946058946694</v>
       </c>
       <c r="D14">
-        <v>1.016845194447803</v>
+        <v>1.071760252171461</v>
       </c>
       <c r="E14">
-        <v>1.010584953705798</v>
+        <v>1.074565623822622</v>
       </c>
       <c r="F14">
-        <v>1.02078933403473</v>
+        <v>1.083297975648484</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043137166314974</v>
+        <v>1.048625484653316</v>
       </c>
       <c r="J14">
-        <v>1.023089877403528</v>
+        <v>1.077272939996231</v>
       </c>
       <c r="K14">
-        <v>1.031472838422479</v>
+        <v>1.075203238789111</v>
       </c>
       <c r="L14">
-        <v>1.025326687196472</v>
+        <v>1.077998977793133</v>
       </c>
       <c r="M14">
-        <v>1.035346031412819</v>
+        <v>1.086701696711021</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9944315571431893</v>
+        <v>1.0711185732453</v>
       </c>
       <c r="D15">
-        <v>1.017643708093501</v>
+        <v>1.071895932773901</v>
       </c>
       <c r="E15">
-        <v>1.011447644783465</v>
+        <v>1.074715744446884</v>
       </c>
       <c r="F15">
-        <v>1.021656887056203</v>
+        <v>1.083448420944708</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043456196500687</v>
+        <v>1.048668671060174</v>
       </c>
       <c r="J15">
-        <v>1.023885335427643</v>
+        <v>1.077408976998335</v>
       </c>
       <c r="K15">
-        <v>1.032170264293953</v>
+        <v>1.07531969736718</v>
       </c>
       <c r="L15">
-        <v>1.026086110163521</v>
+        <v>1.078129885621675</v>
       </c>
       <c r="M15">
-        <v>1.036111899620727</v>
+        <v>1.086833108352179</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000317671092864</v>
+        <v>1.07212209947403</v>
       </c>
       <c r="D16">
-        <v>1.022220828450815</v>
+        <v>1.072685072026312</v>
       </c>
       <c r="E16">
-        <v>1.016393492353581</v>
+        <v>1.075589047091703</v>
       </c>
       <c r="F16">
-        <v>1.026630688299126</v>
+        <v>1.084323591921081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045279969226987</v>
+        <v>1.048919273702947</v>
       </c>
       <c r="J16">
-        <v>1.028441945980565</v>
+        <v>1.078200059653883</v>
       </c>
       <c r="K16">
-        <v>1.036164608981684</v>
+        <v>1.075996751654728</v>
       </c>
       <c r="L16">
-        <v>1.030437106360194</v>
+        <v>1.078891168130565</v>
       </c>
       <c r="M16">
-        <v>1.040499890939731</v>
+        <v>1.08759730077002</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00393036188062</v>
+        <v>1.07275108079777</v>
       </c>
       <c r="D17">
-        <v>1.025032365094806</v>
+        <v>1.073179572478614</v>
       </c>
       <c r="E17">
-        <v>1.019432311218461</v>
+        <v>1.076136444023509</v>
       </c>
       <c r="F17">
-        <v>1.02968673521016</v>
+        <v>1.08487214188839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046395901643621</v>
+        <v>1.049075802139898</v>
       </c>
       <c r="J17">
-        <v>1.031238335470654</v>
+        <v>1.07869566435924</v>
       </c>
       <c r="K17">
-        <v>1.038615274477051</v>
+        <v>1.076420763736316</v>
       </c>
       <c r="L17">
-        <v>1.033107989592772</v>
+        <v>1.079368127036672</v>
       </c>
       <c r="M17">
-        <v>1.043193527914057</v>
+        <v>1.088076065113103</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006010294043179</v>
+        <v>1.073117776431832</v>
       </c>
       <c r="D18">
-        <v>1.026651790243972</v>
+        <v>1.073467826133974</v>
       </c>
       <c r="E18">
-        <v>1.02118294648443</v>
+        <v>1.07645558867553</v>
       </c>
       <c r="F18">
-        <v>1.031447307913628</v>
+        <v>1.085191952239887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04703710205329</v>
+        <v>1.049166862662682</v>
       </c>
       <c r="J18">
-        <v>1.032848146969601</v>
+        <v>1.078984520967244</v>
       </c>
       <c r="K18">
-        <v>1.040025808080115</v>
+        <v>1.076667837557831</v>
       </c>
       <c r="L18">
-        <v>1.034645785005704</v>
+        <v>1.079646124665479</v>
       </c>
       <c r="M18">
-        <v>1.044744434074772</v>
+        <v>1.088355108638812</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006714991112788</v>
+        <v>1.073242780181227</v>
       </c>
       <c r="D19">
-        <v>1.027200583153217</v>
+        <v>1.073566082837924</v>
       </c>
       <c r="E19">
-        <v>1.021776255695646</v>
+        <v>1.076564384774239</v>
       </c>
       <c r="F19">
-        <v>1.032043986568635</v>
+        <v>1.085300974160931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047254125951773</v>
+        <v>1.049197871343088</v>
       </c>
       <c r="J19">
-        <v>1.033393533708814</v>
+        <v>1.079082976306127</v>
       </c>
       <c r="K19">
-        <v>1.040503637283788</v>
+        <v>1.076752041937877</v>
       </c>
       <c r="L19">
-        <v>1.035166812427783</v>
+        <v>1.079740880208169</v>
       </c>
       <c r="M19">
-        <v>1.045269904771521</v>
+        <v>1.08845021958468</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003545606570669</v>
+        <v>1.072683615591902</v>
       </c>
       <c r="D20">
-        <v>1.024732854929238</v>
+        <v>1.073126535936783</v>
       </c>
       <c r="E20">
-        <v>1.019108558319167</v>
+        <v>1.076077728329846</v>
       </c>
       <c r="F20">
-        <v>1.029361145408298</v>
+        <v>1.084813303192475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046277185336645</v>
+        <v>1.049059032949968</v>
       </c>
       <c r="J20">
-        <v>1.030940531923618</v>
+        <v>1.078642513601924</v>
       </c>
       <c r="K20">
-        <v>1.038354315052213</v>
+        <v>1.076375296666316</v>
       </c>
       <c r="L20">
-        <v>1.032823527315988</v>
+        <v>1.079316975055972</v>
       </c>
       <c r="M20">
-        <v>1.042906641084436</v>
+        <v>1.08802472016867</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9929112429957907</v>
+        <v>1.070863596949504</v>
       </c>
       <c r="D21">
-        <v>1.016462267916571</v>
+        <v>1.071695394553104</v>
       </c>
       <c r="E21">
-        <v>1.010171265799695</v>
+        <v>1.074493866772488</v>
       </c>
       <c r="F21">
-        <v>1.020373316361106</v>
+        <v>1.083226063047529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042984087753921</v>
+        <v>1.048604830642213</v>
       </c>
       <c r="J21">
-        <v>1.022708361410982</v>
+        <v>1.077207909718579</v>
       </c>
       <c r="K21">
-        <v>1.031138328290083</v>
+        <v>1.075147564553889</v>
       </c>
       <c r="L21">
-        <v>1.024962469079666</v>
+        <v>1.077936399913184</v>
       </c>
       <c r="M21">
-        <v>1.034978723622205</v>
+        <v>1.086638877642016</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859484029625721</v>
+        <v>1.069717602744563</v>
       </c>
       <c r="D22">
-        <v>1.011055730119099</v>
+        <v>1.070793910084483</v>
       </c>
       <c r="E22">
-        <v>1.004331365074349</v>
+        <v>1.073496692359458</v>
       </c>
       <c r="F22">
-        <v>1.014500660961747</v>
+        <v>1.082226703307469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040816888443999</v>
+        <v>1.048317076135127</v>
       </c>
       <c r="J22">
-        <v>1.017317968373871</v>
+        <v>1.076303872682771</v>
       </c>
       <c r="K22">
-        <v>1.026411306993685</v>
+        <v>1.074373387423526</v>
       </c>
       <c r="L22">
-        <v>1.019817502355256</v>
+        <v>1.077066487555471</v>
       </c>
       <c r="M22">
-        <v>1.029790228120188</v>
+        <v>1.085765589229425</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9896673749832153</v>
+        <v>1.070325278146968</v>
       </c>
       <c r="D23">
-        <v>1.013942559988528</v>
+        <v>1.071271964537073</v>
       </c>
       <c r="E23">
-        <v>1.007449374653221</v>
+        <v>1.074025442723107</v>
       </c>
       <c r="F23">
-        <v>1.017636125894467</v>
+        <v>1.08275661791412</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04197541546985</v>
+        <v>1.048469827736632</v>
       </c>
       <c r="J23">
-        <v>1.020197052052555</v>
+        <v>1.076783316137578</v>
       </c>
       <c r="K23">
-        <v>1.028936245922158</v>
+        <v>1.07478400907725</v>
       </c>
       <c r="L23">
-        <v>1.022565261781493</v>
+        <v>1.077527826051142</v>
       </c>
       <c r="M23">
-        <v>1.032561206297134</v>
+        <v>1.086228723501843</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003719544943305</v>
+        <v>1.072714100766296</v>
       </c>
       <c r="D24">
-        <v>1.024868253792471</v>
+        <v>1.07315050142384</v>
       </c>
       <c r="E24">
-        <v>1.019254915612128</v>
+        <v>1.076104259865677</v>
       </c>
       <c r="F24">
-        <v>1.029508333062923</v>
+        <v>1.084839890328896</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046330858016828</v>
+        <v>1.049066610966351</v>
       </c>
       <c r="J24">
-        <v>1.031075162034931</v>
+        <v>1.078666530825121</v>
       </c>
       <c r="K24">
-        <v>1.038472289576662</v>
+        <v>1.076395842036168</v>
       </c>
       <c r="L24">
-        <v>1.032952125419786</v>
+        <v>1.079340089066146</v>
       </c>
       <c r="M24">
-        <v>1.043036335236793</v>
+        <v>1.088047921393058</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018966585294331</v>
+        <v>1.075479227241966</v>
       </c>
       <c r="D25">
-        <v>1.036750615649223</v>
+        <v>1.075323397667219</v>
       </c>
       <c r="E25">
-        <v>1.03210562143392</v>
+        <v>1.078511039105214</v>
       </c>
       <c r="F25">
-        <v>1.042432031379494</v>
+        <v>1.087251570768124</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051007726020582</v>
+        <v>1.049749744496203</v>
       </c>
       <c r="J25">
-        <v>1.042872083826579</v>
+        <v>1.080843244094679</v>
       </c>
       <c r="K25">
-        <v>1.048804007784113</v>
+        <v>1.078256685691701</v>
       </c>
       <c r="L25">
-        <v>1.044225174884761</v>
+        <v>1.081435124226183</v>
       </c>
       <c r="M25">
-        <v>1.054405511916885</v>
+        <v>1.090150722027586</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077679419419598</v>
+        <v>1.030406119515806</v>
       </c>
       <c r="D2">
-        <v>1.077051058944553</v>
+        <v>1.045680826850435</v>
       </c>
       <c r="E2">
-        <v>1.0804264580099</v>
+        <v>1.041774028476898</v>
       </c>
       <c r="F2">
-        <v>1.089170678772191</v>
+        <v>1.052155075999812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050287125591677</v>
+        <v>1.054474021894451</v>
       </c>
       <c r="J2">
-        <v>1.082572676276497</v>
+        <v>1.051713923360276</v>
       </c>
       <c r="K2">
-        <v>1.079733377003637</v>
+        <v>1.056538428053453</v>
       </c>
       <c r="L2">
-        <v>1.083099922956953</v>
+        <v>1.052680517315817</v>
       </c>
       <c r="M2">
-        <v>1.0918214844453</v>
+        <v>1.062932656214651</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.079274077384807</v>
+        <v>1.038348646793925</v>
       </c>
       <c r="D3">
-        <v>1.078302463502724</v>
+        <v>1.051886967312824</v>
       </c>
       <c r="E3">
-        <v>1.081814909288512</v>
+        <v>1.048499774576898</v>
       </c>
       <c r="F3">
-        <v>1.090561679395764</v>
+        <v>1.058918410574181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050673018726119</v>
+        <v>1.05685447895794</v>
       </c>
       <c r="J3">
-        <v>1.083824640796738</v>
+        <v>1.057845809434076</v>
       </c>
       <c r="K3">
-        <v>1.080801342285464</v>
+        <v>1.061896350808459</v>
       </c>
       <c r="L3">
-        <v>1.084305246673492</v>
+        <v>1.058547536812584</v>
       </c>
       <c r="M3">
-        <v>1.093031003619709</v>
+        <v>1.068849088297343</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080304654526588</v>
+        <v>1.043335328664684</v>
       </c>
       <c r="D4">
-        <v>1.079110843163894</v>
+        <v>1.055785339413501</v>
       </c>
       <c r="E4">
-        <v>1.08271230434714</v>
+        <v>1.052727751074096</v>
       </c>
       <c r="F4">
-        <v>1.091460663694052</v>
+        <v>1.06316974732038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050920746271911</v>
+        <v>1.05833644926892</v>
       </c>
       <c r="J4">
-        <v>1.084633051092644</v>
+        <v>1.061691916302248</v>
       </c>
       <c r="K4">
-        <v>1.081490460681232</v>
+        <v>1.06525406336177</v>
       </c>
       <c r="L4">
-        <v>1.085083608082098</v>
+        <v>1.062228871392919</v>
       </c>
       <c r="M4">
-        <v>1.093812017004684</v>
+        <v>1.07256116883046</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.080737612399024</v>
+        <v>1.045397272894434</v>
       </c>
       <c r="D5">
-        <v>1.07945036516801</v>
+        <v>1.057397614432711</v>
       </c>
       <c r="E5">
-        <v>1.083089329772964</v>
+        <v>1.054477138083049</v>
       </c>
       <c r="F5">
-        <v>1.091838342704078</v>
+        <v>1.06492872523064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05102442116833</v>
+        <v>1.058946142220136</v>
       </c>
       <c r="J5">
-        <v>1.08497250717956</v>
+        <v>1.063281268488139</v>
       </c>
       <c r="K5">
-        <v>1.081779709941692</v>
+        <v>1.066640861332431</v>
       </c>
       <c r="L5">
-        <v>1.08541046253944</v>
+        <v>1.063750445773572</v>
       </c>
       <c r="M5">
-        <v>1.094139971259656</v>
+        <v>1.074095379571494</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080810290761981</v>
+        <v>1.04574151935441</v>
       </c>
       <c r="D6">
-        <v>1.079507353751882</v>
+        <v>1.057666804185402</v>
       </c>
       <c r="E6">
-        <v>1.083152620136098</v>
+        <v>1.054769267870193</v>
       </c>
       <c r="F6">
-        <v>1.091901741952299</v>
+        <v>1.065222451920159</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05104180115396</v>
+        <v>1.059047748457602</v>
       </c>
       <c r="J6">
-        <v>1.085029480092796</v>
+        <v>1.063546555262168</v>
       </c>
       <c r="K6">
-        <v>1.08182824956646</v>
+        <v>1.066872294982871</v>
       </c>
       <c r="L6">
-        <v>1.085465321385388</v>
+        <v>1.06400443737989</v>
       </c>
       <c r="M6">
-        <v>1.094195013879437</v>
+        <v>1.074351476047476</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080310440886963</v>
+        <v>1.04336301322273</v>
       </c>
       <c r="D7">
-        <v>1.079115381127348</v>
+        <v>1.055806985330617</v>
       </c>
       <c r="E7">
-        <v>1.082717343112671</v>
+        <v>1.052751234636865</v>
       </c>
       <c r="F7">
-        <v>1.091465711250011</v>
+        <v>1.063193359939037</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050922133424181</v>
+        <v>1.058344647575727</v>
       </c>
       <c r="J7">
-        <v>1.084637588484167</v>
+        <v>1.061713259584735</v>
       </c>
       <c r="K7">
-        <v>1.081494327429913</v>
+        <v>1.065272689490849</v>
       </c>
       <c r="L7">
-        <v>1.085087976969018</v>
+        <v>1.062249303274934</v>
       </c>
       <c r="M7">
-        <v>1.093816400646543</v>
+        <v>1.072581770690661</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078218610023318</v>
+        <v>1.033123261353232</v>
       </c>
       <c r="D8">
-        <v>1.077474262429914</v>
+        <v>1.04780348230492</v>
       </c>
       <c r="E8">
-        <v>1.080895907699891</v>
+        <v>1.044073738725421</v>
       </c>
       <c r="F8">
-        <v>1.089641002472957</v>
+        <v>1.054467688900598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050417949399115</v>
+        <v>1.055290992230196</v>
       </c>
       <c r="J8">
-        <v>1.082996138053326</v>
+        <v>1.053812395184147</v>
       </c>
       <c r="K8">
-        <v>1.080094702859812</v>
+        <v>1.058372636437357</v>
       </c>
       <c r="L8">
-        <v>1.083507594925812</v>
+        <v>1.054688049322273</v>
       </c>
       <c r="M8">
-        <v>1.092230587244521</v>
+        <v>1.064957144360837</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.074522424224321</v>
+        <v>1.013805775448725</v>
       </c>
       <c r="D9">
-        <v>1.074571719545457</v>
+        <v>1.032725828384489</v>
       </c>
       <c r="E9">
-        <v>1.077678174874104</v>
+        <v>1.027751255236497</v>
       </c>
       <c r="F9">
-        <v>1.086417042954855</v>
+        <v>1.038052937835869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049514320603024</v>
+        <v>1.049431281890943</v>
       </c>
       <c r="J9">
-        <v>1.080090442810736</v>
+        <v>1.038880261638656</v>
       </c>
       <c r="K9">
-        <v>1.077613400672973</v>
+        <v>1.045309363211513</v>
       </c>
       <c r="L9">
-        <v>1.080710529878791</v>
+        <v>1.04040957973067</v>
       </c>
       <c r="M9">
-        <v>1.089423473702824</v>
+        <v>1.050557392514842</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072050994147459</v>
+        <v>0.9999056134234487</v>
       </c>
       <c r="D10">
-        <v>1.072629164192416</v>
+        <v>1.021900255807572</v>
       </c>
       <c r="E10">
-        <v>1.075527166485464</v>
+        <v>1.016047044607423</v>
       </c>
       <c r="F10">
-        <v>1.084261580086386</v>
+        <v>1.026282278606956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048901551965604</v>
+        <v>1.045152515950617</v>
       </c>
       <c r="J10">
-        <v>1.078144021445738</v>
+        <v>1.028122976687669</v>
       </c>
       <c r="K10">
-        <v>1.075948800878152</v>
+        <v>1.035885040985601</v>
       </c>
       <c r="L10">
-        <v>1.078837239361449</v>
+        <v>1.030132485744597</v>
       </c>
       <c r="M10">
-        <v>1.087543166998733</v>
+        <v>1.040192676994934</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.070978991348959</v>
+        <v>0.9936005603905774</v>
       </c>
       <c r="D11">
-        <v>1.071786153617815</v>
+        <v>1.01699789775123</v>
       </c>
       <c r="E11">
-        <v>1.074594281183619</v>
+        <v>1.010749926686672</v>
       </c>
       <c r="F11">
-        <v>1.083326695066479</v>
+        <v>1.020955236404388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04863373117173</v>
+        <v>1.043198195086548</v>
       </c>
       <c r="J11">
-        <v>1.077298909981148</v>
+        <v>1.023242008313944</v>
       </c>
       <c r="K11">
-        <v>1.075225471857247</v>
+        <v>1.031606223399115</v>
       </c>
       <c r="L11">
-        <v>1.078023968494263</v>
+        <v>1.025471923193315</v>
       </c>
       <c r="M11">
-        <v>1.086726783668431</v>
+        <v>1.035492499718113</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.070580512906882</v>
+        <v>0.9912112306802285</v>
       </c>
       <c r="D12">
-        <v>1.071472734056824</v>
+        <v>1.015141574927509</v>
       </c>
       <c r="E12">
-        <v>1.07424753547534</v>
+        <v>1.008744550404419</v>
       </c>
       <c r="F12">
-        <v>1.082979196010138</v>
+        <v>1.018938575000087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048533874133648</v>
+        <v>1.042455696345867</v>
       </c>
       <c r="J12">
-        <v>1.076984645206497</v>
+        <v>1.02139226140775</v>
       </c>
       <c r="K12">
-        <v>1.074956406354372</v>
+        <v>1.029984324120108</v>
       </c>
       <c r="L12">
-        <v>1.0777215574259</v>
+        <v>1.023706114555111</v>
       </c>
       <c r="M12">
-        <v>1.086423205383225</v>
+        <v>1.033711719061557</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.07066600111616</v>
+        <v>0.9917259694349475</v>
       </c>
       <c r="D13">
-        <v>1.071539976753689</v>
+        <v>1.015541417327102</v>
       </c>
       <c r="E13">
-        <v>1.074321924162378</v>
+        <v>1.009176479693533</v>
       </c>
       <c r="F13">
-        <v>1.08305374676951</v>
+        <v>1.019372932609169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048555310886747</v>
+        <v>1.042615738062412</v>
       </c>
       <c r="J13">
-        <v>1.07705207215066</v>
+        <v>1.021790757717999</v>
       </c>
       <c r="K13">
-        <v>1.075014139518919</v>
+        <v>1.030333749504904</v>
       </c>
       <c r="L13">
-        <v>1.077786440494267</v>
+        <v>1.024086508722494</v>
       </c>
       <c r="M13">
-        <v>1.086488339325179</v>
+        <v>1.034095336516164</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.070946058946694</v>
+        <v>0.993404050987721</v>
       </c>
       <c r="D14">
-        <v>1.071760252171461</v>
+        <v>1.016845194447805</v>
       </c>
       <c r="E14">
-        <v>1.074565623822622</v>
+        <v>1.0105849537058</v>
       </c>
       <c r="F14">
-        <v>1.083297975648484</v>
+        <v>1.020789334034732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048625484653316</v>
+        <v>1.043137166314975</v>
       </c>
       <c r="J14">
-        <v>1.077272939996231</v>
+        <v>1.02308987740353</v>
       </c>
       <c r="K14">
-        <v>1.075203238789111</v>
+        <v>1.03147283842248</v>
       </c>
       <c r="L14">
-        <v>1.077998977793133</v>
+        <v>1.025326687196474</v>
       </c>
       <c r="M14">
-        <v>1.086701696711021</v>
+        <v>1.035346031412821</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0711185732453</v>
+        <v>0.9944315571431906</v>
       </c>
       <c r="D15">
-        <v>1.071895932773901</v>
+        <v>1.017643708093502</v>
       </c>
       <c r="E15">
-        <v>1.074715744446884</v>
+        <v>1.011447644783467</v>
       </c>
       <c r="F15">
-        <v>1.083448420944708</v>
+        <v>1.021656887056204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048668671060174</v>
+        <v>1.043456196500687</v>
       </c>
       <c r="J15">
-        <v>1.077408976998335</v>
+        <v>1.023885335427644</v>
       </c>
       <c r="K15">
-        <v>1.07531969736718</v>
+        <v>1.032170264293955</v>
       </c>
       <c r="L15">
-        <v>1.078129885621675</v>
+        <v>1.026086110163522</v>
       </c>
       <c r="M15">
-        <v>1.086833108352179</v>
+        <v>1.036111899620728</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.07212209947403</v>
+        <v>1.000317671092865</v>
       </c>
       <c r="D16">
-        <v>1.072685072026312</v>
+        <v>1.022220828450816</v>
       </c>
       <c r="E16">
-        <v>1.075589047091703</v>
+        <v>1.016393492353581</v>
       </c>
       <c r="F16">
-        <v>1.084323591921081</v>
+        <v>1.026630688299126</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048919273702947</v>
+        <v>1.045279969226987</v>
       </c>
       <c r="J16">
-        <v>1.078200059653883</v>
+        <v>1.028441945980566</v>
       </c>
       <c r="K16">
-        <v>1.075996751654728</v>
+        <v>1.036164608981685</v>
       </c>
       <c r="L16">
-        <v>1.078891168130565</v>
+        <v>1.030437106360195</v>
       </c>
       <c r="M16">
-        <v>1.08759730077002</v>
+        <v>1.040499890939732</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07275108079777</v>
+        <v>1.003930361880622</v>
       </c>
       <c r="D17">
-        <v>1.073179572478614</v>
+        <v>1.025032365094807</v>
       </c>
       <c r="E17">
-        <v>1.076136444023509</v>
+        <v>1.019432311218463</v>
       </c>
       <c r="F17">
-        <v>1.08487214188839</v>
+        <v>1.029686735210162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049075802139898</v>
+        <v>1.046395901643622</v>
       </c>
       <c r="J17">
-        <v>1.07869566435924</v>
+        <v>1.031238335470656</v>
       </c>
       <c r="K17">
-        <v>1.076420763736316</v>
+        <v>1.038615274477052</v>
       </c>
       <c r="L17">
-        <v>1.079368127036672</v>
+        <v>1.033107989592773</v>
       </c>
       <c r="M17">
-        <v>1.088076065113103</v>
+        <v>1.043193527914058</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.073117776431832</v>
+        <v>1.006010294043179</v>
       </c>
       <c r="D18">
-        <v>1.073467826133974</v>
+        <v>1.026651790243972</v>
       </c>
       <c r="E18">
-        <v>1.07645558867553</v>
+        <v>1.021182946484431</v>
       </c>
       <c r="F18">
-        <v>1.085191952239887</v>
+        <v>1.031447307913628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049166862662682</v>
+        <v>1.04703710205329</v>
       </c>
       <c r="J18">
-        <v>1.078984520967244</v>
+        <v>1.032848146969601</v>
       </c>
       <c r="K18">
-        <v>1.076667837557831</v>
+        <v>1.040025808080115</v>
       </c>
       <c r="L18">
-        <v>1.079646124665479</v>
+        <v>1.034645785005704</v>
       </c>
       <c r="M18">
-        <v>1.088355108638812</v>
+        <v>1.044744434074772</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073242780181227</v>
+        <v>1.00671499111279</v>
       </c>
       <c r="D19">
-        <v>1.073566082837924</v>
+        <v>1.027200583153218</v>
       </c>
       <c r="E19">
-        <v>1.076564384774239</v>
+        <v>1.021776255695647</v>
       </c>
       <c r="F19">
-        <v>1.085300974160931</v>
+        <v>1.032043986568637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049197871343088</v>
+        <v>1.047254125951773</v>
       </c>
       <c r="J19">
-        <v>1.079082976306127</v>
+        <v>1.033393533708815</v>
       </c>
       <c r="K19">
-        <v>1.076752041937877</v>
+        <v>1.04050363728379</v>
       </c>
       <c r="L19">
-        <v>1.079740880208169</v>
+        <v>1.035166812427784</v>
       </c>
       <c r="M19">
-        <v>1.08845021958468</v>
+        <v>1.045269904771522</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.072683615591902</v>
+        <v>1.003545606570667</v>
       </c>
       <c r="D20">
-        <v>1.073126535936783</v>
+        <v>1.024732854929236</v>
       </c>
       <c r="E20">
-        <v>1.076077728329846</v>
+        <v>1.019108558319165</v>
       </c>
       <c r="F20">
-        <v>1.084813303192475</v>
+        <v>1.029361145408296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049059032949968</v>
+        <v>1.046277185336644</v>
       </c>
       <c r="J20">
-        <v>1.078642513601924</v>
+        <v>1.030940531923615</v>
       </c>
       <c r="K20">
-        <v>1.076375296666316</v>
+        <v>1.038354315052211</v>
       </c>
       <c r="L20">
-        <v>1.079316975055972</v>
+        <v>1.032823527315985</v>
       </c>
       <c r="M20">
-        <v>1.08802472016867</v>
+        <v>1.042906641084434</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.070863596949504</v>
+        <v>0.9929112429957911</v>
       </c>
       <c r="D21">
-        <v>1.071695394553104</v>
+        <v>1.016462267916572</v>
       </c>
       <c r="E21">
-        <v>1.074493866772488</v>
+        <v>1.010171265799695</v>
       </c>
       <c r="F21">
-        <v>1.083226063047529</v>
+        <v>1.020373316361107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048604830642213</v>
+        <v>1.042984087753921</v>
       </c>
       <c r="J21">
-        <v>1.077207909718579</v>
+        <v>1.022708361410983</v>
       </c>
       <c r="K21">
-        <v>1.075147564553889</v>
+        <v>1.031138328290083</v>
       </c>
       <c r="L21">
-        <v>1.077936399913184</v>
+        <v>1.024962469079666</v>
       </c>
       <c r="M21">
-        <v>1.086638877642016</v>
+        <v>1.034978723622205</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.069717602744563</v>
+        <v>0.9859484029625711</v>
       </c>
       <c r="D22">
-        <v>1.070793910084483</v>
+        <v>1.011055730119098</v>
       </c>
       <c r="E22">
-        <v>1.073496692359458</v>
+        <v>1.004331365074348</v>
       </c>
       <c r="F22">
-        <v>1.082226703307469</v>
+        <v>1.014500660961746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048317076135127</v>
+        <v>1.040816888443999</v>
       </c>
       <c r="J22">
-        <v>1.076303872682771</v>
+        <v>1.01731796837387</v>
       </c>
       <c r="K22">
-        <v>1.074373387423526</v>
+        <v>1.026411306993685</v>
       </c>
       <c r="L22">
-        <v>1.077066487555471</v>
+        <v>1.019817502355255</v>
       </c>
       <c r="M22">
-        <v>1.085765589229425</v>
+        <v>1.029790228120187</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.070325278146968</v>
+        <v>0.9896673749832157</v>
       </c>
       <c r="D23">
-        <v>1.071271964537073</v>
+        <v>1.013942559988528</v>
       </c>
       <c r="E23">
-        <v>1.074025442723107</v>
+        <v>1.007449374653221</v>
       </c>
       <c r="F23">
-        <v>1.08275661791412</v>
+        <v>1.017636125894467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048469827736632</v>
+        <v>1.04197541546985</v>
       </c>
       <c r="J23">
-        <v>1.076783316137578</v>
+        <v>1.020197052052556</v>
       </c>
       <c r="K23">
-        <v>1.07478400907725</v>
+        <v>1.028936245922159</v>
       </c>
       <c r="L23">
-        <v>1.077527826051142</v>
+        <v>1.022565261781493</v>
       </c>
       <c r="M23">
-        <v>1.086228723501843</v>
+        <v>1.032561206297134</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.072714100766296</v>
+        <v>1.003719544943303</v>
       </c>
       <c r="D24">
-        <v>1.07315050142384</v>
+        <v>1.02486825379247</v>
       </c>
       <c r="E24">
-        <v>1.076104259865677</v>
+        <v>1.019254915612127</v>
       </c>
       <c r="F24">
-        <v>1.084839890328896</v>
+        <v>1.029508333062922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049066610966351</v>
+        <v>1.046330858016827</v>
       </c>
       <c r="J24">
-        <v>1.078666530825121</v>
+        <v>1.03107516203493</v>
       </c>
       <c r="K24">
-        <v>1.076395842036168</v>
+        <v>1.038472289576661</v>
       </c>
       <c r="L24">
-        <v>1.079340089066146</v>
+        <v>1.032952125419785</v>
       </c>
       <c r="M24">
-        <v>1.088047921393058</v>
+        <v>1.043036335236792</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075479227241966</v>
+        <v>1.018966585294332</v>
       </c>
       <c r="D25">
-        <v>1.075323397667219</v>
+        <v>1.036750615649223</v>
       </c>
       <c r="E25">
-        <v>1.078511039105214</v>
+        <v>1.03210562143392</v>
       </c>
       <c r="F25">
-        <v>1.087251570768124</v>
+        <v>1.042432031379494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049749744496203</v>
+        <v>1.051007726020582</v>
       </c>
       <c r="J25">
-        <v>1.080843244094679</v>
+        <v>1.042872083826579</v>
       </c>
       <c r="K25">
-        <v>1.078256685691701</v>
+        <v>1.048804007784113</v>
       </c>
       <c r="L25">
-        <v>1.081435124226183</v>
+        <v>1.044225174884761</v>
       </c>
       <c r="M25">
-        <v>1.090150722027586</v>
+        <v>1.054405511916885</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030406119515806</v>
+        <v>1.012484177935888</v>
       </c>
       <c r="D2">
-        <v>1.045680826850435</v>
+        <v>1.032854272803771</v>
       </c>
       <c r="E2">
-        <v>1.041774028476898</v>
+        <v>1.027604876710489</v>
       </c>
       <c r="F2">
-        <v>1.052155075999812</v>
+        <v>1.039438216231837</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054474021894451</v>
+        <v>1.049594415546117</v>
       </c>
       <c r="J2">
-        <v>1.051713923360276</v>
+        <v>1.034297794885717</v>
       </c>
       <c r="K2">
-        <v>1.056538428053453</v>
+        <v>1.043874111463206</v>
       </c>
       <c r="L2">
-        <v>1.052680517315817</v>
+        <v>1.038692574723123</v>
       </c>
       <c r="M2">
-        <v>1.062932656214651</v>
+        <v>1.05037415327116</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048440110832118</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042093078343399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038348646793925</v>
+        <v>1.016188082543151</v>
       </c>
       <c r="D3">
-        <v>1.051886967312824</v>
+        <v>1.03527318198121</v>
       </c>
       <c r="E3">
-        <v>1.048499774576898</v>
+        <v>1.030434812407599</v>
       </c>
       <c r="F3">
-        <v>1.058918410574181</v>
+        <v>1.042056847748362</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05685447895794</v>
+        <v>1.050218954267255</v>
       </c>
       <c r="J3">
-        <v>1.057845809434076</v>
+        <v>1.03624696543218</v>
       </c>
       <c r="K3">
-        <v>1.061896350808459</v>
+        <v>1.045473783953808</v>
       </c>
       <c r="L3">
-        <v>1.058547536812584</v>
+        <v>1.040692538399096</v>
       </c>
       <c r="M3">
-        <v>1.068849088297343</v>
+        <v>1.052178462405633</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049868083659158</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043221522836097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043335328664684</v>
+        <v>1.018545960747151</v>
       </c>
       <c r="D4">
-        <v>1.055785339413501</v>
+        <v>1.03681651552791</v>
       </c>
       <c r="E4">
-        <v>1.052727751074096</v>
+        <v>1.032242141627235</v>
       </c>
       <c r="F4">
-        <v>1.06316974732038</v>
+        <v>1.043729470604812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05833644926892</v>
+        <v>1.050607541792862</v>
       </c>
       <c r="J4">
-        <v>1.061691916302248</v>
+        <v>1.037486869073635</v>
       </c>
       <c r="K4">
-        <v>1.06525406336177</v>
+        <v>1.046490010701218</v>
       </c>
       <c r="L4">
-        <v>1.062228871392919</v>
+        <v>1.041966403247049</v>
       </c>
       <c r="M4">
-        <v>1.07256116883046</v>
+        <v>1.053327281956474</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050777285135811</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043940966145591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045397272894434</v>
+        <v>1.019531419312378</v>
       </c>
       <c r="D5">
-        <v>1.057397614432711</v>
+        <v>1.037464204393079</v>
       </c>
       <c r="E5">
-        <v>1.054477138083049</v>
+        <v>1.032999338026561</v>
       </c>
       <c r="F5">
-        <v>1.06492872523064</v>
+        <v>1.044430424317761</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058946142220136</v>
+        <v>1.050769138055285</v>
       </c>
       <c r="J5">
-        <v>1.063281268488139</v>
+        <v>1.038006284104569</v>
       </c>
       <c r="K5">
-        <v>1.066640861332431</v>
+        <v>1.046916748889633</v>
       </c>
       <c r="L5">
-        <v>1.063750445773572</v>
+        <v>1.042500120787607</v>
       </c>
       <c r="M5">
-        <v>1.074095379571494</v>
+        <v>1.053808713898365</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051158300809228</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044249832465233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04574151935441</v>
+        <v>1.019700288109523</v>
       </c>
       <c r="D6">
-        <v>1.057666804185402</v>
+        <v>1.037577507970893</v>
       </c>
       <c r="E6">
-        <v>1.054769267870193</v>
+        <v>1.03312974565622</v>
       </c>
       <c r="F6">
-        <v>1.065222451920159</v>
+        <v>1.044551321743765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059047748457602</v>
+        <v>1.050798382326277</v>
       </c>
       <c r="J6">
-        <v>1.063546555262168</v>
+        <v>1.038097042329689</v>
       </c>
       <c r="K6">
-        <v>1.066872294982871</v>
+        <v>1.04699294172274</v>
       </c>
       <c r="L6">
-        <v>1.06400443737989</v>
+        <v>1.04259301381106</v>
       </c>
       <c r="M6">
-        <v>1.074351476047476</v>
+        <v>1.053892757065681</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051224814373528</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044312401069854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04336301322273</v>
+        <v>1.018569737359024</v>
       </c>
       <c r="D7">
-        <v>1.055806985330617</v>
+        <v>1.036838214359535</v>
       </c>
       <c r="E7">
-        <v>1.052751234636865</v>
+        <v>1.032261954695161</v>
       </c>
       <c r="F7">
-        <v>1.063193359939037</v>
+        <v>1.043748265050724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058344647575727</v>
+        <v>1.050615970189263</v>
       </c>
       <c r="J7">
-        <v>1.061713259584735</v>
+        <v>1.03750414542748</v>
       </c>
       <c r="K7">
-        <v>1.065272689490849</v>
+        <v>1.046508610790479</v>
       </c>
       <c r="L7">
-        <v>1.062249303274934</v>
+        <v>1.04198311908207</v>
       </c>
       <c r="M7">
-        <v>1.072581770690661</v>
+        <v>1.053343038229621</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050789754994952</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043974116613294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033123261353232</v>
+        <v>1.013757398360646</v>
       </c>
       <c r="D8">
-        <v>1.04780348230492</v>
+        <v>1.033692550793145</v>
       </c>
       <c r="E8">
-        <v>1.044073738725421</v>
+        <v>1.028578435694529</v>
       </c>
       <c r="F8">
-        <v>1.054467688900598</v>
+        <v>1.040339540964821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055290992230196</v>
+        <v>1.049816537188606</v>
       </c>
       <c r="J8">
-        <v>1.053812395184147</v>
+        <v>1.03497391752902</v>
       </c>
       <c r="K8">
-        <v>1.058372636437357</v>
+        <v>1.044434685016535</v>
       </c>
       <c r="L8">
-        <v>1.054688049322273</v>
+        <v>1.039384723482229</v>
       </c>
       <c r="M8">
-        <v>1.064957144360837</v>
+        <v>1.05099946534707</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048934997875558</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042512238573063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013805775448725</v>
+        <v>1.004950604278094</v>
       </c>
       <c r="D9">
-        <v>1.032725828384489</v>
+        <v>1.027955576028617</v>
       </c>
       <c r="E9">
-        <v>1.027751255236497</v>
+        <v>1.021882481427642</v>
       </c>
       <c r="F9">
-        <v>1.038052937835869</v>
+        <v>1.034144752784124</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049431281890943</v>
+        <v>1.048276855151336</v>
       </c>
       <c r="J9">
-        <v>1.038880261638656</v>
+        <v>1.030329747034394</v>
       </c>
       <c r="K9">
-        <v>1.045309363211513</v>
+        <v>1.040610810526516</v>
       </c>
       <c r="L9">
-        <v>1.04040957973067</v>
+        <v>1.034630233948986</v>
       </c>
       <c r="M9">
-        <v>1.050557392514842</v>
+        <v>1.046707122667195</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04553792779263</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039805368954369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999056134234487</v>
+        <v>0.9989123896939983</v>
       </c>
       <c r="D10">
-        <v>1.021900255807572</v>
+        <v>1.024063174370834</v>
       </c>
       <c r="E10">
-        <v>1.016047044607423</v>
+        <v>1.017348018348212</v>
       </c>
       <c r="F10">
-        <v>1.026282278606956</v>
+        <v>1.029983214151505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045152515950617</v>
+        <v>1.047196168720894</v>
       </c>
       <c r="J10">
-        <v>1.028122976687669</v>
+        <v>1.027169225682414</v>
       </c>
       <c r="K10">
-        <v>1.035885040985601</v>
+        <v>1.03801114033311</v>
       </c>
       <c r="L10">
-        <v>1.030132485744597</v>
+        <v>1.031410957537997</v>
       </c>
       <c r="M10">
-        <v>1.040192676994934</v>
+        <v>1.043831422897399</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043313154833967</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037984000944051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9936005603905774</v>
+        <v>0.9967113482469671</v>
       </c>
       <c r="D11">
-        <v>1.01699789775123</v>
+        <v>1.022791195109546</v>
       </c>
       <c r="E11">
-        <v>1.010749926686672</v>
+        <v>1.015878904584198</v>
       </c>
       <c r="F11">
-        <v>1.020955236404388</v>
+        <v>1.028887288569898</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043198195086548</v>
+        <v>1.046943024877581</v>
       </c>
       <c r="J11">
-        <v>1.023242008313944</v>
+        <v>1.026221581851878</v>
       </c>
       <c r="K11">
-        <v>1.031606223399115</v>
+        <v>1.037295732279574</v>
       </c>
       <c r="L11">
-        <v>1.025471923193315</v>
+        <v>1.030507454682829</v>
       </c>
       <c r="M11">
-        <v>1.035492499718113</v>
+        <v>1.043284247573459</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043313917033704</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037510911297078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9912112306802285</v>
+        <v>0.9960585547528431</v>
       </c>
       <c r="D12">
-        <v>1.015141574927509</v>
+        <v>1.022473991743914</v>
       </c>
       <c r="E12">
-        <v>1.008744550404419</v>
+        <v>1.015521912692188</v>
       </c>
       <c r="F12">
-        <v>1.018938575000087</v>
+        <v>1.028745653249603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042455696345867</v>
+        <v>1.046931829192116</v>
       </c>
       <c r="J12">
-        <v>1.02139226140775</v>
+        <v>1.026030665435543</v>
       </c>
       <c r="K12">
-        <v>1.029984324120108</v>
+        <v>1.037182930236647</v>
       </c>
       <c r="L12">
-        <v>1.023706114555111</v>
+        <v>1.030357659117085</v>
       </c>
       <c r="M12">
-        <v>1.033711719061557</v>
+        <v>1.043342103355373</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043684416894153</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037431157113622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9917259694349475</v>
+        <v>0.996568786907772</v>
       </c>
       <c r="D13">
-        <v>1.015541417327102</v>
+        <v>1.022887733730129</v>
       </c>
       <c r="E13">
-        <v>1.009176479693533</v>
+        <v>1.016010960594292</v>
       </c>
       <c r="F13">
-        <v>1.019372932609169</v>
+        <v>1.029349278633694</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042615738062412</v>
+        <v>1.047119064672227</v>
       </c>
       <c r="J13">
-        <v>1.021790757717999</v>
+        <v>1.026425919981026</v>
       </c>
       <c r="K13">
-        <v>1.030333749504904</v>
+        <v>1.037546588394635</v>
       </c>
       <c r="L13">
-        <v>1.024086508722494</v>
+        <v>1.030794686298568</v>
       </c>
       <c r="M13">
-        <v>1.034095336516164</v>
+        <v>1.043892774324924</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044395232895238</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037685789722192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.993404050987721</v>
+        <v>0.9974544737374095</v>
       </c>
       <c r="D14">
-        <v>1.016845194447805</v>
+        <v>1.023510581823045</v>
       </c>
       <c r="E14">
-        <v>1.0105849537058</v>
+        <v>1.01673773799263</v>
       </c>
       <c r="F14">
-        <v>1.020789334034732</v>
+        <v>1.030110765726384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043137166314975</v>
+        <v>1.047340599097503</v>
       </c>
       <c r="J14">
-        <v>1.02308987740353</v>
+        <v>1.02696934036203</v>
       </c>
       <c r="K14">
-        <v>1.03147283842248</v>
+        <v>1.038018743482594</v>
       </c>
       <c r="L14">
-        <v>1.025326687196474</v>
+        <v>1.031367324893633</v>
       </c>
       <c r="M14">
-        <v>1.035346031412821</v>
+        <v>1.044502587385336</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045049898751246</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038021036119469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9944315571431906</v>
+        <v>0.997928230798479</v>
       </c>
       <c r="D15">
-        <v>1.017643708093502</v>
+        <v>1.023828377108806</v>
       </c>
       <c r="E15">
-        <v>1.011447644783467</v>
+        <v>1.017106105205171</v>
       </c>
       <c r="F15">
-        <v>1.021656887056204</v>
+        <v>1.030469894629757</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043456196500687</v>
+        <v>1.047441436858426</v>
       </c>
       <c r="J15">
-        <v>1.023885335427644</v>
+        <v>1.027235840223224</v>
       </c>
       <c r="K15">
-        <v>1.032170264293955</v>
+        <v>1.038244981349049</v>
       </c>
       <c r="L15">
-        <v>1.026086110163522</v>
+        <v>1.031642301053763</v>
       </c>
       <c r="M15">
-        <v>1.036111899620728</v>
+        <v>1.044770326908942</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045298916435621</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03818684154323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000317671092865</v>
+        <v>1.000387209051739</v>
       </c>
       <c r="D16">
-        <v>1.022220828450816</v>
+        <v>1.025401229023108</v>
       </c>
       <c r="E16">
-        <v>1.016393492353581</v>
+        <v>1.01893456489428</v>
       </c>
       <c r="F16">
-        <v>1.026630688299126</v>
+        <v>1.03213790924487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045279969226987</v>
+        <v>1.047879563926061</v>
       </c>
       <c r="J16">
-        <v>1.028441945980566</v>
+        <v>1.028508736560197</v>
       </c>
       <c r="K16">
-        <v>1.036164608981685</v>
+        <v>1.039291140626134</v>
       </c>
       <c r="L16">
-        <v>1.030437106360195</v>
+        <v>1.032934463982435</v>
       </c>
       <c r="M16">
-        <v>1.040499890939732</v>
+        <v>1.045915128019088</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046165201988598</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038929662342004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003930361880622</v>
+        <v>1.001811027016966</v>
       </c>
       <c r="D17">
-        <v>1.025032365094807</v>
+        <v>1.026282602083304</v>
       </c>
       <c r="E17">
-        <v>1.019432311218463</v>
+        <v>1.01995767590604</v>
       </c>
       <c r="F17">
-        <v>1.029686735210162</v>
+        <v>1.033015733283667</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046395901643622</v>
+        <v>1.04809689686362</v>
       </c>
       <c r="J17">
-        <v>1.031238335470656</v>
+        <v>1.029199787582828</v>
       </c>
       <c r="K17">
-        <v>1.038615274477052</v>
+        <v>1.039844978129561</v>
       </c>
       <c r="L17">
-        <v>1.033107989592773</v>
+        <v>1.033624595452873</v>
       </c>
       <c r="M17">
-        <v>1.043193527914058</v>
+        <v>1.046468624144068</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04647420800458</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039323820900006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006010294043179</v>
+        <v>1.002466339186542</v>
       </c>
       <c r="D18">
-        <v>1.026651790243972</v>
+        <v>1.02663204220589</v>
       </c>
       <c r="E18">
-        <v>1.021182946484431</v>
+        <v>1.020362112334006</v>
       </c>
       <c r="F18">
-        <v>1.031447307913628</v>
+        <v>1.033260877580588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04703710205329</v>
+        <v>1.048135834105032</v>
       </c>
       <c r="J18">
-        <v>1.032848146969601</v>
+        <v>1.029436493910405</v>
       </c>
       <c r="K18">
-        <v>1.040025808080115</v>
+        <v>1.040006378589448</v>
       </c>
       <c r="L18">
-        <v>1.034645785005704</v>
+        <v>1.033838387852106</v>
       </c>
       <c r="M18">
-        <v>1.044744434074772</v>
+        <v>1.046529163093808</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046285517616427</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039426347075351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00671499111279</v>
+        <v>1.002443096949212</v>
       </c>
       <c r="D19">
-        <v>1.027200583153218</v>
+        <v>1.026521013268755</v>
       </c>
       <c r="E19">
-        <v>1.021776255695647</v>
+        <v>1.020220308450227</v>
       </c>
       <c r="F19">
-        <v>1.032043986568637</v>
+        <v>1.03294616178687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047254125951773</v>
+        <v>1.048026131440656</v>
       </c>
       <c r="J19">
-        <v>1.033393533708815</v>
+        <v>1.029280034197775</v>
       </c>
       <c r="K19">
-        <v>1.04050363728379</v>
+        <v>1.039834964897517</v>
       </c>
       <c r="L19">
-        <v>1.035166812427784</v>
+        <v>1.033636185621199</v>
       </c>
       <c r="M19">
-        <v>1.045269904771522</v>
+        <v>1.046157814289213</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045668167164471</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039311522177712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003545606570667</v>
+        <v>1.000504497828095</v>
       </c>
       <c r="D20">
-        <v>1.024732854929236</v>
+        <v>1.025103682815379</v>
       </c>
       <c r="E20">
-        <v>1.019108558319165</v>
+        <v>1.018546555117815</v>
       </c>
       <c r="F20">
-        <v>1.029361145408296</v>
+        <v>1.031085605773246</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046277185336644</v>
+        <v>1.047496270636204</v>
       </c>
       <c r="J20">
-        <v>1.030940531923615</v>
+        <v>1.028015985772849</v>
       </c>
       <c r="K20">
-        <v>1.038354315052211</v>
+        <v>1.03871902399165</v>
       </c>
       <c r="L20">
-        <v>1.032823527315985</v>
+        <v>1.032270941067153</v>
       </c>
       <c r="M20">
-        <v>1.042906641084434</v>
+        <v>1.044603021754893</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043913302501083</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038526421727545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9929112429957911</v>
+        <v>0.9958875596117885</v>
       </c>
       <c r="D21">
-        <v>1.016462267916572</v>
+        <v>1.02210669769608</v>
       </c>
       <c r="E21">
-        <v>1.010171265799695</v>
+        <v>1.01505770012225</v>
       </c>
       <c r="F21">
-        <v>1.020373316361107</v>
+        <v>1.027835234737667</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042984087753921</v>
+        <v>1.046624841451427</v>
       </c>
       <c r="J21">
-        <v>1.022708361410983</v>
+        <v>1.025558232222826</v>
       </c>
       <c r="K21">
-        <v>1.031138328290083</v>
+        <v>1.036681015998953</v>
       </c>
       <c r="L21">
-        <v>1.024962469079666</v>
+        <v>1.02975930695053</v>
       </c>
       <c r="M21">
-        <v>1.034978723622205</v>
+        <v>1.042307776339234</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042056155963882</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037088700942198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9859484029625711</v>
+        <v>0.9929481344433496</v>
       </c>
       <c r="D22">
-        <v>1.011055730119098</v>
+        <v>1.02020672688055</v>
       </c>
       <c r="E22">
-        <v>1.004331365074348</v>
+        <v>1.012853602668965</v>
       </c>
       <c r="F22">
-        <v>1.014500660961746</v>
+        <v>1.025797899087202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040816888443999</v>
+        <v>1.046065899104041</v>
       </c>
       <c r="J22">
-        <v>1.01731796837387</v>
+        <v>1.024000991882233</v>
       </c>
       <c r="K22">
-        <v>1.026411306993685</v>
+        <v>1.035388238661259</v>
       </c>
       <c r="L22">
-        <v>1.019817502355255</v>
+        <v>1.028174656451949</v>
       </c>
       <c r="M22">
-        <v>1.029790228120187</v>
+        <v>1.040875051681802</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040922252011958</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036161191598752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9896673749832157</v>
+        <v>0.9945014511492319</v>
       </c>
       <c r="D23">
-        <v>1.013942559988528</v>
+        <v>1.021204799083941</v>
       </c>
       <c r="E23">
-        <v>1.007449374653221</v>
+        <v>1.014015902537724</v>
       </c>
       <c r="F23">
-        <v>1.017636125894467</v>
+        <v>1.026871948069243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04197541546985</v>
+        <v>1.046358138771509</v>
       </c>
       <c r="J23">
-        <v>1.020197052052556</v>
+        <v>1.024819554083193</v>
       </c>
       <c r="K23">
-        <v>1.028936245922159</v>
+        <v>1.036064207601838</v>
       </c>
       <c r="L23">
-        <v>1.022565261781493</v>
+        <v>1.029008219835268</v>
       </c>
       <c r="M23">
-        <v>1.032561206297134</v>
+        <v>1.041628287315075</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041518386917797</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036629520232094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003719544943303</v>
+        <v>1.000520038941245</v>
       </c>
       <c r="D24">
-        <v>1.02486825379247</v>
+        <v>1.025092068208732</v>
       </c>
       <c r="E24">
-        <v>1.019254915612127</v>
+        <v>1.018538691772316</v>
       </c>
       <c r="F24">
-        <v>1.029508333062922</v>
+        <v>1.031052979927481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046330858016827</v>
+        <v>1.047478856133961</v>
       </c>
       <c r="J24">
-        <v>1.03107516203493</v>
+        <v>1.027998085077177</v>
       </c>
       <c r="K24">
-        <v>1.038472289576661</v>
+        <v>1.038692416182803</v>
       </c>
       <c r="L24">
-        <v>1.032952125419785</v>
+        <v>1.032247885172744</v>
       </c>
       <c r="M24">
-        <v>1.043036335236792</v>
+        <v>1.044555866083192</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043835362257089</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038480301003713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018966585294332</v>
+        <v>1.007283037488925</v>
       </c>
       <c r="D25">
-        <v>1.036750615649223</v>
+        <v>1.0294806811246</v>
       </c>
       <c r="E25">
-        <v>1.03210562143392</v>
+        <v>1.023652679639052</v>
       </c>
       <c r="F25">
-        <v>1.042432031379494</v>
+        <v>1.03578269778327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051007726020582</v>
+        <v>1.048699530718871</v>
       </c>
       <c r="J25">
-        <v>1.042872083826579</v>
+        <v>1.031567759933357</v>
       </c>
       <c r="K25">
-        <v>1.048804007784113</v>
+        <v>1.041637957580428</v>
       </c>
       <c r="L25">
-        <v>1.044225174884761</v>
+        <v>1.03589458784168</v>
       </c>
       <c r="M25">
-        <v>1.054405511916885</v>
+        <v>1.047849814629127</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046442285045461</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040560082877367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012484177935888</v>
+        <v>1.011459151798996</v>
       </c>
       <c r="D2">
-        <v>1.032854272803771</v>
+        <v>1.031427325831379</v>
       </c>
       <c r="E2">
-        <v>1.027604876710489</v>
+        <v>1.026702481640558</v>
       </c>
       <c r="F2">
-        <v>1.039438216231837</v>
+        <v>1.038469658365111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049594415546117</v>
+        <v>1.049007258603797</v>
       </c>
       <c r="J2">
-        <v>1.034297794885717</v>
+        <v>1.033302441411007</v>
       </c>
       <c r="K2">
-        <v>1.043874111463206</v>
+        <v>1.042465525237185</v>
       </c>
       <c r="L2">
-        <v>1.038692574723123</v>
+        <v>1.037801932518649</v>
       </c>
       <c r="M2">
-        <v>1.05037415327116</v>
+        <v>1.04941785477153</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048440110832118</v>
+        <v>1.047683272519244</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042093078343399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041105829566632</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023290083387249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016188082543151</v>
+        <v>1.015053602265368</v>
       </c>
       <c r="D3">
-        <v>1.03527318198121</v>
+        <v>1.033697874760831</v>
       </c>
       <c r="E3">
-        <v>1.030434812407599</v>
+        <v>1.029432781123835</v>
       </c>
       <c r="F3">
-        <v>1.042056847748362</v>
+        <v>1.040985861789225</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050218954267255</v>
+        <v>1.049565650594148</v>
       </c>
       <c r="J3">
-        <v>1.03624696543218</v>
+        <v>1.035142136746298</v>
       </c>
       <c r="K3">
-        <v>1.045473783953808</v>
+        <v>1.043917002842318</v>
       </c>
       <c r="L3">
-        <v>1.040692538399096</v>
+        <v>1.039702420749265</v>
       </c>
       <c r="M3">
-        <v>1.052178462405633</v>
+        <v>1.051119862170066</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049868083659158</v>
+        <v>1.049030282784333</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043221522836097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042129212582694</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023582151549324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018545960747151</v>
+        <v>1.017342569425147</v>
       </c>
       <c r="D4">
-        <v>1.03681651552791</v>
+        <v>1.035147283169315</v>
       </c>
       <c r="E4">
-        <v>1.032242141627235</v>
+        <v>1.03117729566312</v>
       </c>
       <c r="F4">
-        <v>1.043729470604812</v>
+        <v>1.042593788664473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050607541792862</v>
+        <v>1.049912333000943</v>
       </c>
       <c r="J4">
-        <v>1.037486869073635</v>
+        <v>1.036312818769119</v>
       </c>
       <c r="K4">
-        <v>1.046490010701218</v>
+        <v>1.044839239568508</v>
       </c>
       <c r="L4">
-        <v>1.041966403247049</v>
+        <v>1.040913454498933</v>
       </c>
       <c r="M4">
-        <v>1.053327281956474</v>
+        <v>1.052203949033103</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050777285135811</v>
+        <v>1.049888254357952</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043940966145591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042782280347615</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023765420626656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019531419312378</v>
+        <v>1.018299438633783</v>
       </c>
       <c r="D5">
-        <v>1.037464204393079</v>
+        <v>1.035755913293648</v>
       </c>
       <c r="E5">
-        <v>1.032999338026561</v>
+        <v>1.031908412693452</v>
       </c>
       <c r="F5">
-        <v>1.044430424317761</v>
+        <v>1.043267861584052</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050769138055285</v>
+        <v>1.050056485048521</v>
       </c>
       <c r="J5">
-        <v>1.038006284104569</v>
+        <v>1.036803450800075</v>
       </c>
       <c r="K5">
-        <v>1.046916748889633</v>
+        <v>1.045226853887602</v>
       </c>
       <c r="L5">
-        <v>1.042500120787607</v>
+        <v>1.041421059644549</v>
       </c>
       <c r="M5">
-        <v>1.053808713898365</v>
+        <v>1.052658458895265</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051158300809228</v>
+        <v>1.050247963746934</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044249832465233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043064194827583</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023842337027884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019700288109523</v>
+        <v>1.018463461161665</v>
       </c>
       <c r="D6">
-        <v>1.037577507970893</v>
+        <v>1.035862621127596</v>
       </c>
       <c r="E6">
-        <v>1.03312974565622</v>
+        <v>1.032034396266854</v>
       </c>
       <c r="F6">
-        <v>1.044551321743765</v>
+        <v>1.043384207686068</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050798382326277</v>
+        <v>1.050082768529701</v>
       </c>
       <c r="J6">
-        <v>1.038097042329689</v>
+        <v>1.036889328039619</v>
       </c>
       <c r="K6">
-        <v>1.04699294172274</v>
+        <v>1.045296438368808</v>
       </c>
       <c r="L6">
-        <v>1.04259301381106</v>
+        <v>1.041509522191337</v>
       </c>
       <c r="M6">
-        <v>1.053892757065681</v>
+        <v>1.052737942843015</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051224814373528</v>
+        <v>1.050310869123838</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044312401069854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043122960281963</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023856657929201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018569737359024</v>
+        <v>1.017365761022024</v>
       </c>
       <c r="D7">
-        <v>1.036838214359535</v>
+        <v>1.035168274281971</v>
       </c>
       <c r="E7">
-        <v>1.032261954695161</v>
+        <v>1.031196568538746</v>
       </c>
       <c r="F7">
-        <v>1.043748265050724</v>
+        <v>1.042612056033482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050615970189263</v>
+        <v>1.049920403574462</v>
       </c>
       <c r="J7">
-        <v>1.03750414542748</v>
+        <v>1.036329511858636</v>
       </c>
       <c r="K7">
-        <v>1.046508610790479</v>
+        <v>1.044857132682356</v>
       </c>
       <c r="L7">
-        <v>1.04198311908207</v>
+        <v>1.040929631655157</v>
       </c>
       <c r="M7">
-        <v>1.053343038229621</v>
+        <v>1.05221917931708</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050789754994952</v>
+        <v>1.049900307952112</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043974116613294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042816931425572</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023770445645333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013757398360646</v>
+        <v>1.012694674660927</v>
       </c>
       <c r="D8">
-        <v>1.033692550793145</v>
+        <v>1.032214753823585</v>
       </c>
       <c r="E8">
-        <v>1.028578435694529</v>
+        <v>1.027641734304385</v>
       </c>
       <c r="F8">
-        <v>1.040339540964821</v>
+        <v>1.039335784889995</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049816537188606</v>
+        <v>1.049206653331189</v>
       </c>
       <c r="J8">
-        <v>1.03497391752902</v>
+        <v>1.03394093245367</v>
       </c>
       <c r="K8">
-        <v>1.044434685016535</v>
+        <v>1.042975344728638</v>
       </c>
       <c r="L8">
-        <v>1.039384723482229</v>
+        <v>1.038459858808031</v>
       </c>
       <c r="M8">
-        <v>1.05099946534707</v>
+        <v>1.050008039838739</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048934997875558</v>
+        <v>1.048150359687122</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042512238573063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041491372657023</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023394965926233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004950604278094</v>
+        <v>1.004152776086157</v>
       </c>
       <c r="D9">
-        <v>1.027955576028617</v>
+        <v>1.026833387528328</v>
       </c>
       <c r="E9">
-        <v>1.021882481427642</v>
+        <v>1.021186282195454</v>
       </c>
       <c r="F9">
-        <v>1.034144752784124</v>
+        <v>1.033387488974817</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048276855151336</v>
+        <v>1.047825366110029</v>
       </c>
       <c r="J9">
-        <v>1.030329747034394</v>
+        <v>1.029559736600013</v>
       </c>
       <c r="K9">
-        <v>1.040610810526516</v>
+        <v>1.03950561250402</v>
       </c>
       <c r="L9">
-        <v>1.034630233948986</v>
+        <v>1.033944730400823</v>
       </c>
       <c r="M9">
-        <v>1.046707122667195</v>
+        <v>1.045961145149049</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04553792779263</v>
+        <v>1.044947540454651</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039805368954369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039034623252757</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022682210619329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9989123896939983</v>
+        <v>0.9982981615950002</v>
       </c>
       <c r="D10">
-        <v>1.024063174370834</v>
+        <v>1.023184906688606</v>
       </c>
       <c r="E10">
-        <v>1.017348018348212</v>
+        <v>1.016817612876995</v>
       </c>
       <c r="F10">
-        <v>1.029983214151505</v>
+        <v>1.029395666590019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047196168720894</v>
+        <v>1.046852693385186</v>
       </c>
       <c r="J10">
-        <v>1.027169225682414</v>
+        <v>1.026579463937071</v>
       </c>
       <c r="K10">
-        <v>1.03801114033311</v>
+        <v>1.037147799103791</v>
       </c>
       <c r="L10">
-        <v>1.031410957537997</v>
+        <v>1.030889717090664</v>
       </c>
       <c r="M10">
-        <v>1.043831422897399</v>
+        <v>1.043253709857089</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043313154833967</v>
+        <v>1.042855963515987</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037984000944051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037385944722777</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022191361336596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9967113482469671</v>
+        <v>0.9961397228903126</v>
       </c>
       <c r="D11">
-        <v>1.022791195109546</v>
+        <v>1.021976857038428</v>
       </c>
       <c r="E11">
-        <v>1.015878904584198</v>
+        <v>1.015385687298608</v>
       </c>
       <c r="F11">
-        <v>1.028887288569898</v>
+        <v>1.028341740642827</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046943024877581</v>
+        <v>1.046624399169627</v>
       </c>
       <c r="J11">
-        <v>1.026221581851878</v>
+        <v>1.02567398038535</v>
       </c>
       <c r="K11">
-        <v>1.037295732279574</v>
+        <v>1.036495891027765</v>
       </c>
       <c r="L11">
-        <v>1.030507454682829</v>
+        <v>1.030023170113411</v>
       </c>
       <c r="M11">
-        <v>1.043284247573459</v>
+        <v>1.042748259635466</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043313917033704</v>
+        <v>1.04288995715417</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037510911297078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036960975596994</v>
+      </c>
+      <c r="S11">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.022093603661919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9960585547528431</v>
+        <v>0.9954870912837196</v>
       </c>
       <c r="D12">
-        <v>1.022473991743914</v>
+        <v>1.021666026598595</v>
       </c>
       <c r="E12">
-        <v>1.015521912692188</v>
+        <v>1.015027871106649</v>
       </c>
       <c r="F12">
-        <v>1.028745653249603</v>
+        <v>1.028202480541074</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046931829192116</v>
+        <v>1.046613282116749</v>
       </c>
       <c r="J12">
-        <v>1.026030665435543</v>
+        <v>1.0254836812047</v>
       </c>
       <c r="K12">
-        <v>1.037182930236647</v>
+        <v>1.036389587341201</v>
       </c>
       <c r="L12">
-        <v>1.030357659117085</v>
+        <v>1.029872715138473</v>
       </c>
       <c r="M12">
-        <v>1.043342103355373</v>
+        <v>1.042808602522248</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043684416894153</v>
+        <v>1.043262565731689</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037431157113622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036885817392251</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022100269847056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.996568786907772</v>
+        <v>0.9959642704106452</v>
       </c>
       <c r="D13">
-        <v>1.022887733730129</v>
+        <v>1.022041639029824</v>
       </c>
       <c r="E13">
-        <v>1.016010960594292</v>
+        <v>1.015486366629141</v>
       </c>
       <c r="F13">
-        <v>1.029349278633694</v>
+        <v>1.028777717466363</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047119064672227</v>
+        <v>1.046781278392236</v>
       </c>
       <c r="J13">
-        <v>1.026425919981026</v>
+        <v>1.025847167306446</v>
       </c>
       <c r="K13">
-        <v>1.037546588394635</v>
+        <v>1.036715739555182</v>
       </c>
       <c r="L13">
-        <v>1.030794686298568</v>
+        <v>1.030279708535366</v>
       </c>
       <c r="M13">
-        <v>1.043892774324924</v>
+        <v>1.043331341533349</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044395232895238</v>
+        <v>1.043951405946669</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037685789722192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037113684633922</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022194735599532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9974544737374095</v>
+        <v>0.9968120204269603</v>
       </c>
       <c r="D14">
-        <v>1.023510581823045</v>
+        <v>1.022617801816143</v>
       </c>
       <c r="E14">
-        <v>1.01673773799263</v>
+        <v>1.016178520070751</v>
       </c>
       <c r="F14">
-        <v>1.030110765726384</v>
+        <v>1.029505574297077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047340599097503</v>
+        <v>1.046980699257106</v>
       </c>
       <c r="J14">
-        <v>1.02696934036203</v>
+        <v>1.026353871667351</v>
       </c>
       <c r="K14">
-        <v>1.038018743482594</v>
+        <v>1.037141849991687</v>
       </c>
       <c r="L14">
-        <v>1.031367324893633</v>
+        <v>1.030818226850206</v>
       </c>
       <c r="M14">
-        <v>1.044502587385336</v>
+        <v>1.043907983058587</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045049898751246</v>
+        <v>1.044579911901288</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038021036119469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037416509368097</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022301118291126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.997928230798479</v>
+        <v>0.9972690589251608</v>
       </c>
       <c r="D15">
-        <v>1.023828377108806</v>
+        <v>1.022914198885292</v>
       </c>
       <c r="E15">
-        <v>1.017106105205171</v>
+        <v>1.016531749401041</v>
       </c>
       <c r="F15">
-        <v>1.030469894629757</v>
+        <v>1.029849583027659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047441436858426</v>
+        <v>1.047071777625375</v>
       </c>
       <c r="J15">
-        <v>1.027235840223224</v>
+        <v>1.026604111700229</v>
       </c>
       <c r="K15">
-        <v>1.038244981349049</v>
+        <v>1.037346946915902</v>
       </c>
       <c r="L15">
-        <v>1.031642301053763</v>
+        <v>1.031078258545017</v>
       </c>
       <c r="M15">
-        <v>1.044770326908942</v>
+        <v>1.044160783549234</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045298916435621</v>
+        <v>1.044817134096622</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03818684154323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037567937406148</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022348313448383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000387209051739</v>
+        <v>0.9996562766592928</v>
       </c>
       <c r="D16">
-        <v>1.025401229023108</v>
+        <v>1.024390565162304</v>
       </c>
       <c r="E16">
-        <v>1.01893456489428</v>
+        <v>1.018295823586397</v>
       </c>
       <c r="F16">
-        <v>1.03213790924487</v>
+        <v>1.031451020510516</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047879563926061</v>
+        <v>1.04746788864446</v>
       </c>
       <c r="J16">
-        <v>1.028508736560197</v>
+        <v>1.027806709666312</v>
       </c>
       <c r="K16">
-        <v>1.039291140626134</v>
+        <v>1.038297548382326</v>
       </c>
       <c r="L16">
-        <v>1.032934463982435</v>
+        <v>1.03230668461868</v>
       </c>
       <c r="M16">
-        <v>1.045915128019088</v>
+        <v>1.045239642938712</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046165201988598</v>
+        <v>1.045631284229288</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038929662342004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03824349326669</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022545101824142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001811027016966</v>
+        <v>1.001045009866464</v>
       </c>
       <c r="D17">
-        <v>1.026282602083304</v>
+        <v>1.025222501464925</v>
       </c>
       <c r="E17">
-        <v>1.01995767590604</v>
+        <v>1.019287701702365</v>
       </c>
       <c r="F17">
-        <v>1.033015733283667</v>
+        <v>1.032295436819346</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04809689686362</v>
+        <v>1.04766457111818</v>
       </c>
       <c r="J17">
-        <v>1.029199787582828</v>
+        <v>1.028463089033655</v>
       </c>
       <c r="K17">
-        <v>1.039844978129561</v>
+        <v>1.038802283979059</v>
       </c>
       <c r="L17">
-        <v>1.033624595452873</v>
+        <v>1.032965793033729</v>
       </c>
       <c r="M17">
-        <v>1.046468624144068</v>
+        <v>1.045759952609797</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04647420800458</v>
+        <v>1.045914003523689</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039323820900006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038603181910717</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02263934909585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002466339186542</v>
+        <v>1.001694331843161</v>
       </c>
       <c r="D18">
-        <v>1.02663204220589</v>
+        <v>1.025559463326762</v>
       </c>
       <c r="E18">
-        <v>1.020362112334006</v>
+        <v>1.019687342334803</v>
       </c>
       <c r="F18">
-        <v>1.033260877580588</v>
+        <v>1.032533362078058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048135834105032</v>
+        <v>1.04769992468123</v>
       </c>
       <c r="J18">
-        <v>1.029436493910405</v>
+        <v>1.028693481824838</v>
       </c>
       <c r="K18">
-        <v>1.040006378589448</v>
+        <v>1.038951124691961</v>
       </c>
       <c r="L18">
-        <v>1.033838387852106</v>
+        <v>1.033174684623655</v>
       </c>
       <c r="M18">
-        <v>1.046529163093808</v>
+        <v>1.045813201458465</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046285517616427</v>
+        <v>1.045719433329701</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039426347075351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038695690546295</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02264850375606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002443096949212</v>
+        <v>1.001690319381423</v>
       </c>
       <c r="D19">
-        <v>1.026521013268755</v>
+        <v>1.025468420811942</v>
       </c>
       <c r="E19">
-        <v>1.020220308450227</v>
+        <v>1.01956364899195</v>
       </c>
       <c r="F19">
-        <v>1.03294616178687</v>
+        <v>1.032234275076789</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048026131440656</v>
+        <v>1.04760146316964</v>
       </c>
       <c r="J19">
-        <v>1.029280034197775</v>
+        <v>1.028555365475281</v>
       </c>
       <c r="K19">
-        <v>1.039834964897517</v>
+        <v>1.038799288261922</v>
       </c>
       <c r="L19">
-        <v>1.033636185621199</v>
+        <v>1.032990242000708</v>
       </c>
       <c r="M19">
-        <v>1.046157814289213</v>
+        <v>1.045457181673984</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045668167164471</v>
+        <v>1.04511402377387</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039311522177712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038595333693108</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022588352190382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000504497828095</v>
+        <v>0.9998413023334023</v>
       </c>
       <c r="D20">
-        <v>1.025103682815379</v>
+        <v>1.024161043356045</v>
       </c>
       <c r="E20">
-        <v>1.018546555117815</v>
+        <v>1.017971967021227</v>
       </c>
       <c r="F20">
-        <v>1.031085605773246</v>
+        <v>1.030453022236401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047496270636204</v>
+        <v>1.047124121930332</v>
       </c>
       <c r="J20">
-        <v>1.028015985772849</v>
+        <v>1.027378342880432</v>
       </c>
       <c r="K20">
-        <v>1.03871902399165</v>
+        <v>1.037791949988393</v>
       </c>
       <c r="L20">
-        <v>1.032270941067153</v>
+        <v>1.031705994655696</v>
       </c>
       <c r="M20">
-        <v>1.044603021754893</v>
+        <v>1.043980724666794</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043913302501083</v>
+        <v>1.043420822354942</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038526421727545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03788741227951</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022330152476366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9958875596117885</v>
+        <v>0.995371281402163</v>
       </c>
       <c r="D21">
-        <v>1.02210669769608</v>
+        <v>1.02135637581908</v>
       </c>
       <c r="E21">
-        <v>1.01505770012225</v>
+        <v>1.014615619906647</v>
       </c>
       <c r="F21">
-        <v>1.027835234737667</v>
+        <v>1.027337307786259</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046624841451427</v>
+        <v>1.046338368475286</v>
       </c>
       <c r="J21">
-        <v>1.025558232222826</v>
+        <v>1.025063810338949</v>
       </c>
       <c r="K21">
-        <v>1.036681015998953</v>
+        <v>1.0359441346494</v>
       </c>
       <c r="L21">
-        <v>1.02975930695053</v>
+        <v>1.029325286393316</v>
       </c>
       <c r="M21">
-        <v>1.042307776339234</v>
+        <v>1.041818637454762</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042056155963882</v>
+        <v>1.041669036062619</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037088700942198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036584499057917</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02193330735609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9929481344433496</v>
+        <v>0.9925252588787167</v>
       </c>
       <c r="D22">
-        <v>1.02020672688055</v>
+        <v>1.019577988505609</v>
       </c>
       <c r="E22">
-        <v>1.012853602668965</v>
+        <v>1.012495469128534</v>
       </c>
       <c r="F22">
-        <v>1.025797899087202</v>
+        <v>1.025385287182357</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046065899104041</v>
+        <v>1.045833418392053</v>
       </c>
       <c r="J22">
-        <v>1.024000991882233</v>
+        <v>1.023597068072316</v>
       </c>
       <c r="K22">
-        <v>1.035388238661259</v>
+        <v>1.034771329207424</v>
       </c>
       <c r="L22">
-        <v>1.028174656451949</v>
+        <v>1.027823387058994</v>
       </c>
       <c r="M22">
-        <v>1.040875051681802</v>
+        <v>1.040470090451822</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040922252011958</v>
+        <v>1.040601752466728</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036161191598752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035740513734517</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021679890022668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9945014511492319</v>
+        <v>0.9940291313101559</v>
       </c>
       <c r="D23">
-        <v>1.021204799083941</v>
+        <v>1.020511646412653</v>
       </c>
       <c r="E23">
-        <v>1.014015902537724</v>
+        <v>1.013613368190082</v>
       </c>
       <c r="F23">
-        <v>1.026871948069243</v>
+        <v>1.026414178605951</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046358138771509</v>
+        <v>1.046097129778674</v>
       </c>
       <c r="J23">
-        <v>1.024819554083193</v>
+        <v>1.02436777682469</v>
       </c>
       <c r="K23">
-        <v>1.036064207601838</v>
+        <v>1.035383763737426</v>
       </c>
       <c r="L23">
-        <v>1.029008219835268</v>
+        <v>1.028613200314435</v>
       </c>
       <c r="M23">
-        <v>1.041628287315075</v>
+        <v>1.041178788430512</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041518386917797</v>
+        <v>1.04116263910288</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036629520232094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036162973630258</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021811207284402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000520038941245</v>
+        <v>0.999858719651987</v>
       </c>
       <c r="D24">
-        <v>1.025092068208732</v>
+        <v>1.02415102130126</v>
       </c>
       <c r="E24">
-        <v>1.018538691772316</v>
+        <v>1.017965908593107</v>
       </c>
       <c r="F24">
-        <v>1.031052979927481</v>
+        <v>1.030421817650948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047478856133961</v>
+        <v>1.047107805701284</v>
       </c>
       <c r="J24">
-        <v>1.027998085077177</v>
+        <v>1.027362209131208</v>
       </c>
       <c r="K24">
-        <v>1.038692416182803</v>
+        <v>1.037766888962592</v>
       </c>
       <c r="L24">
-        <v>1.032247885172744</v>
+        <v>1.031684701233768</v>
       </c>
       <c r="M24">
-        <v>1.044555866083192</v>
+        <v>1.043934954843579</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043835362257089</v>
+        <v>1.043343954736389</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038480301003713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037839707461673</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022319219491881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007283037488925</v>
+        <v>1.006414268817266</v>
       </c>
       <c r="D25">
-        <v>1.0294806811246</v>
+        <v>1.028264040265015</v>
       </c>
       <c r="E25">
-        <v>1.023652679639052</v>
+        <v>1.022892176687492</v>
       </c>
       <c r="F25">
-        <v>1.03578269778327</v>
+        <v>1.034959713516314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048699530718871</v>
+        <v>1.04820591282941</v>
       </c>
       <c r="J25">
-        <v>1.031567759933357</v>
+        <v>1.030727678790809</v>
       </c>
       <c r="K25">
-        <v>1.041637957580428</v>
+        <v>1.040438883842476</v>
       </c>
       <c r="L25">
-        <v>1.03589458784168</v>
+        <v>1.035145218871899</v>
       </c>
       <c r="M25">
-        <v>1.047849814629127</v>
+        <v>1.047038525512277</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046442285045461</v>
+        <v>1.045800209061269</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040560082877367</v>
+        <v>1.039725769439252</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022878271038763</v>
       </c>
     </row>
   </sheetData>
